--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -397,35 +397,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>source_language</v>
+        <v>Name</v>
       </c>
       <c r="B1" t="str">
-        <v>target_language</v>
+        <v>Index</v>
       </c>
       <c r="C1" t="str">
-        <v>total_tokens</v>
+        <v>ok</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>two</v>
+        <v>one</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>two</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>three</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>four</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>five</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>one</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>one</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C100"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>ok</v>
       </c>
       <c r="B1" t="str">
         <v>age</v>
@@ -414,6 +414,9 @@
       </c>
       <c r="D1" t="str">
         <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>id</v>
       </c>
     </row>
     <row r="2">
@@ -429,6 +432,9 @@
       <c r="D2" t="str">
         <v>Name 1</v>
       </c>
+      <c r="E2" t="str">
+        <v>af8ff2e8-21c5-433f-8054-98cbffc7d6f1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -443,6 +449,9 @@
       <c r="D3" t="str">
         <v>Name 2</v>
       </c>
+      <c r="E3" t="str">
+        <v>7b5cfcdd-0055-4829-90de-504112f9c77e</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -457,6 +466,9 @@
       <c r="D4" t="str">
         <v>Name 3</v>
       </c>
+      <c r="E4" t="str">
+        <v>5bc8448c-7467-4079-990c-45fbcc50746b</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -471,6 +483,9 @@
       <c r="D5" t="str">
         <v>Name 4</v>
       </c>
+      <c r="E5" t="str">
+        <v>2dbd9e0e-041d-4b7f-b13a-7b8d7ac1d1f7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -482,6 +497,9 @@
       <c r="D6" t="str">
         <v>Name 5</v>
       </c>
+      <c r="E6" t="str">
+        <v>c7494c6c-56d9-4775-815d-999aca6504b1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -493,6 +511,9 @@
       <c r="D7" t="str">
         <v>Name 6</v>
       </c>
+      <c r="E7" t="str">
+        <v>a44a8c97-36e8-4afd-9164-b1180e6634d0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -504,6 +525,9 @@
       <c r="D8" t="str">
         <v>Name 7</v>
       </c>
+      <c r="E8" t="str">
+        <v>c5a9f31b-6778-495e-9482-05fd9c8f9404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -515,6 +539,9 @@
       <c r="D9" t="str">
         <v>Name 8</v>
       </c>
+      <c r="E9" t="str">
+        <v>8ca4e540-c068-4b74-b1b7-312e339f1301</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -526,6 +553,9 @@
       <c r="D10" t="str">
         <v>Name 9</v>
       </c>
+      <c r="E10" t="str">
+        <v>a46b4180-8885-4c24-b28e-6148306b846f</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -537,6 +567,9 @@
       <c r="D11" t="str">
         <v>Name 10</v>
       </c>
+      <c r="E11" t="str">
+        <v>0d267dc7-cd11-4b42-8212-177ad66b3cd0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -548,6 +581,9 @@
       <c r="D12" t="str">
         <v>Name 11</v>
       </c>
+      <c r="E12" t="str">
+        <v>608d127f-d223-4dbc-be70-0b446faf00cb</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -559,6 +595,9 @@
       <c r="D13" t="str">
         <v>Name 12</v>
       </c>
+      <c r="E13" t="str">
+        <v>18d2d599-0cc3-46df-8e1f-f909b912f43f</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -570,6 +609,9 @@
       <c r="D14" t="str">
         <v>Name 13</v>
       </c>
+      <c r="E14" t="str">
+        <v>6ded90b6-dff1-4b38-a2df-d760212e1dd6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -581,6 +623,9 @@
       <c r="D15" t="str">
         <v>Name 14</v>
       </c>
+      <c r="E15" t="str">
+        <v>a4947c42-a59a-48ed-970e-52d189f58f71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -592,6 +637,9 @@
       <c r="D16" t="str">
         <v>Name 15</v>
       </c>
+      <c r="E16" t="str">
+        <v>52f9cea6-7f4d-4482-9786-24737f1b8a2b</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -603,6 +651,9 @@
       <c r="D17" t="str">
         <v>Name 16</v>
       </c>
+      <c r="E17" t="str">
+        <v>a4d9c9d7-ef09-42b1-bcff-af6cbdb8e29b</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -614,6 +665,9 @@
       <c r="D18" t="str">
         <v>Name 17</v>
       </c>
+      <c r="E18" t="str">
+        <v>65cc065a-756b-419f-bee2-82a35d7df3b1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -625,6 +679,9 @@
       <c r="D19" t="str">
         <v>Name 18</v>
       </c>
+      <c r="E19" t="str">
+        <v>84f3d8bc-cd34-45c8-89b5-769ac135f990</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -636,6 +693,9 @@
       <c r="D20" t="str">
         <v>Name 19</v>
       </c>
+      <c r="E20" t="str">
+        <v>267600b7-e2e8-42e6-b187-b900575a79bd</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -647,6 +707,9 @@
       <c r="D21" t="str">
         <v>Name 20</v>
       </c>
+      <c r="E21" t="str">
+        <v>8fdc5b3e-ddbc-4670-9b87-642d6f6fc85d</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -658,6 +721,9 @@
       <c r="D22" t="str">
         <v>Name 21</v>
       </c>
+      <c r="E22" t="str">
+        <v>69462ee5-0370-4ce4-ad2f-9860bb64a199</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -669,6 +735,9 @@
       <c r="D23" t="str">
         <v>Name 22</v>
       </c>
+      <c r="E23" t="str">
+        <v>9db32a78-0f7f-4fe0-9be6-3a8b3e9e809a</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -680,6 +749,9 @@
       <c r="D24" t="str">
         <v>Name 23</v>
       </c>
+      <c r="E24" t="str">
+        <v>e7931628-22be-4844-b530-3eeb6b5681f2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -691,6 +763,9 @@
       <c r="D25" t="str">
         <v>Name 24</v>
       </c>
+      <c r="E25" t="str">
+        <v>973d7724-0f7c-4271-ae4c-e47547df2483</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -702,6 +777,9 @@
       <c r="D26" t="str">
         <v>Name 25</v>
       </c>
+      <c r="E26" t="str">
+        <v>42f1d54a-4bdc-465b-b30c-805adc2f6393</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -713,6 +791,9 @@
       <c r="D27" t="str">
         <v>Name 26</v>
       </c>
+      <c r="E27" t="str">
+        <v>dbf6d327-5567-4da7-86ee-5a4cefba7b22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -724,6 +805,9 @@
       <c r="D28" t="str">
         <v>Name 27</v>
       </c>
+      <c r="E28" t="str">
+        <v>cbc94dd7-2617-4cc3-bb45-ceb6e8505423</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -735,6 +819,9 @@
       <c r="D29" t="str">
         <v>Name 28</v>
       </c>
+      <c r="E29" t="str">
+        <v>97a4fd53-bd15-409f-91a4-2c58d0c2c5f9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -746,6 +833,9 @@
       <c r="D30" t="str">
         <v>Name 29</v>
       </c>
+      <c r="E30" t="str">
+        <v>03f55cc0-0d3d-41a2-bdde-f5a48c5d8553</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -757,6 +847,9 @@
       <c r="D31" t="str">
         <v>Name 30</v>
       </c>
+      <c r="E31" t="str">
+        <v>5b0aa509-18f2-4e50-8514-9899a4acb41e</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -768,6 +861,9 @@
       <c r="D32" t="str">
         <v>Name 31</v>
       </c>
+      <c r="E32" t="str">
+        <v>ce9803e2-e0c8-49ba-9328-8daf21d2abb3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -779,6 +875,9 @@
       <c r="D33" t="str">
         <v>Name 32</v>
       </c>
+      <c r="E33" t="str">
+        <v>64c947b1-502b-49ac-b2cd-6dce5cb6631d</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -790,6 +889,9 @@
       <c r="D34" t="str">
         <v>Name 33</v>
       </c>
+      <c r="E34" t="str">
+        <v>81027ce4-db8e-4a61-a850-e9228be4b61d</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -801,6 +903,9 @@
       <c r="D35" t="str">
         <v>Name 34</v>
       </c>
+      <c r="E35" t="str">
+        <v>36a9f759-2ace-4586-881a-83b5aa669e04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -812,6 +917,9 @@
       <c r="D36" t="str">
         <v>Name 35</v>
       </c>
+      <c r="E36" t="str">
+        <v>a31b5d4c-f88e-41e2-9cd1-633987faa97a</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -823,6 +931,9 @@
       <c r="D37" t="str">
         <v>Name 36</v>
       </c>
+      <c r="E37" t="str">
+        <v>12248418-6082-4bb7-9408-eec3555e1d52</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -834,6 +945,9 @@
       <c r="D38" t="str">
         <v>Name 37</v>
       </c>
+      <c r="E38" t="str">
+        <v>5ad4b249-db09-41bc-b816-be9713ba694b</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -845,6 +959,9 @@
       <c r="D39" t="str">
         <v>Name 38</v>
       </c>
+      <c r="E39" t="str">
+        <v>44d6d359-7816-4c2c-800d-6fe0ce817c4f</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -856,6 +973,9 @@
       <c r="D40" t="str">
         <v>Name 39</v>
       </c>
+      <c r="E40" t="str">
+        <v>60038615-4ea4-4bc5-b5ea-558ce10ca21e</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -867,6 +987,9 @@
       <c r="D41" t="str">
         <v>Name 40</v>
       </c>
+      <c r="E41" t="str">
+        <v>417f997e-1c2c-4fb0-9b9e-d72799bf0a68</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -878,6 +1001,9 @@
       <c r="D42" t="str">
         <v>Name 41</v>
       </c>
+      <c r="E42" t="str">
+        <v>d7fd8641-ed68-4a69-b1b7-4b9ab7a9a359</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -889,6 +1015,9 @@
       <c r="D43" t="str">
         <v>Name 42</v>
       </c>
+      <c r="E43" t="str">
+        <v>73e4c92e-dc22-4e35-a667-e5a2b38e843b</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -900,6 +1029,9 @@
       <c r="D44" t="str">
         <v>Name 43</v>
       </c>
+      <c r="E44" t="str">
+        <v>816e6b46-a05e-4d83-806d-3f96df4874d5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -911,6 +1043,9 @@
       <c r="D45" t="str">
         <v>Name 44</v>
       </c>
+      <c r="E45" t="str">
+        <v>369f8878-39da-4769-b273-ece544e09fd5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -922,6 +1057,9 @@
       <c r="D46" t="str">
         <v>Name 45</v>
       </c>
+      <c r="E46" t="str">
+        <v>f35efab0-1fd9-40aa-be8d-3681a7f395b2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -933,6 +1071,9 @@
       <c r="D47" t="str">
         <v>Name 46</v>
       </c>
+      <c r="E47" t="str">
+        <v>a3d0a429-087e-4910-8df3-f3a1b46c80bc</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -944,6 +1085,9 @@
       <c r="D48" t="str">
         <v>Name 47</v>
       </c>
+      <c r="E48" t="str">
+        <v>be8a6029-0c35-4f83-97ba-2ac561685f8b</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -955,6 +1099,9 @@
       <c r="D49" t="str">
         <v>Name 48</v>
       </c>
+      <c r="E49" t="str">
+        <v>4dd86139-d5e3-4d74-a20f-061c8b16e769</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -966,6 +1113,9 @@
       <c r="D50" t="str">
         <v>Name 49</v>
       </c>
+      <c r="E50" t="str">
+        <v>65af9d92-4e44-402b-8f9d-ba86e833e47e</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -977,6 +1127,9 @@
       <c r="D51" t="str">
         <v>Name 50</v>
       </c>
+      <c r="E51" t="str">
+        <v>cdee0cbb-0d7b-4b64-9ea0-6cfe71783fc8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -988,6 +1141,9 @@
       <c r="D52" t="str">
         <v>Name 51</v>
       </c>
+      <c r="E52" t="str">
+        <v>771e2f0a-eee8-4386-969a-bca1a85c4118</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -999,6 +1155,9 @@
       <c r="D53" t="str">
         <v>Name 52</v>
       </c>
+      <c r="E53" t="str">
+        <v>7c84a681-466d-4592-ae3d-6a8657e23616</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1010,6 +1169,9 @@
       <c r="D54" t="str">
         <v>Name 53</v>
       </c>
+      <c r="E54" t="str">
+        <v>5a96eab4-ce76-474e-a013-dad66b7a7c33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1021,6 +1183,9 @@
       <c r="D55" t="str">
         <v>Name 54</v>
       </c>
+      <c r="E55" t="str">
+        <v>dc57bdb0-2258-402d-970c-3d9210b89995</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1032,6 +1197,9 @@
       <c r="D56" t="str">
         <v>Name 55</v>
       </c>
+      <c r="E56" t="str">
+        <v>121dc575-ad02-45c6-bcaf-818563e4e66e</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1043,6 +1211,9 @@
       <c r="D57" t="str">
         <v>Name 56</v>
       </c>
+      <c r="E57" t="str">
+        <v>0d82d539-db22-47ab-993e-ffbe86ba7bd8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1054,6 +1225,9 @@
       <c r="D58" t="str">
         <v>Name 57</v>
       </c>
+      <c r="E58" t="str">
+        <v>80271b69-f8b4-43b5-ba13-3cfb4e15902d</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1065,6 +1239,9 @@
       <c r="D59" t="str">
         <v>Name 58</v>
       </c>
+      <c r="E59" t="str">
+        <v>fca295e9-ff0f-4fb4-b004-9c603be34942</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1076,6 +1253,9 @@
       <c r="D60" t="str">
         <v>Name 59</v>
       </c>
+      <c r="E60" t="str">
+        <v>b337664e-b2c8-4d3e-aadd-7ee4faa2736f</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1087,6 +1267,9 @@
       <c r="D61" t="str">
         <v>Name 60</v>
       </c>
+      <c r="E61" t="str">
+        <v>4167fc00-fbbe-4702-9397-7a48acc25ac0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1098,6 +1281,9 @@
       <c r="D62" t="str">
         <v>Name 61</v>
       </c>
+      <c r="E62" t="str">
+        <v>1e15eba5-f127-4aff-aaf1-3a1b78a2d498</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1109,6 +1295,9 @@
       <c r="D63" t="str">
         <v>Name 62</v>
       </c>
+      <c r="E63" t="str">
+        <v>1a9d2b5f-b990-4533-9918-7c64070c358d</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1120,6 +1309,9 @@
       <c r="D64" t="str">
         <v>Name 63</v>
       </c>
+      <c r="E64" t="str">
+        <v>b2a8035c-6bd7-4f98-92be-406ad09520cf</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1131,6 +1323,9 @@
       <c r="D65" t="str">
         <v>Name 64</v>
       </c>
+      <c r="E65" t="str">
+        <v>5866b71a-1f4c-4e07-ac71-41b26bbf0395</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1142,6 +1337,9 @@
       <c r="D66" t="str">
         <v>Name 65</v>
       </c>
+      <c r="E66" t="str">
+        <v>0a9e31a8-a383-4fe5-90ea-90fd763439f9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -1153,6 +1351,9 @@
       <c r="D67" t="str">
         <v>Name 66</v>
       </c>
+      <c r="E67" t="str">
+        <v>b0947710-2f42-4288-ac6d-11e737c77a65</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -1164,6 +1365,9 @@
       <c r="D68" t="str">
         <v>Name 67</v>
       </c>
+      <c r="E68" t="str">
+        <v>a5179f47-7cd0-4a7a-befd-49af3bfff7bf</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -1175,6 +1379,9 @@
       <c r="D69" t="str">
         <v>Name 68</v>
       </c>
+      <c r="E69" t="str">
+        <v>bc22a7d1-7a57-402c-b309-4671ccc7a2b1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1186,6 +1393,9 @@
       <c r="D70" t="str">
         <v>Name 69</v>
       </c>
+      <c r="E70" t="str">
+        <v>5a713c80-318f-491a-a48c-e12327d8de07</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -1197,6 +1407,9 @@
       <c r="D71" t="str">
         <v>Name 70</v>
       </c>
+      <c r="E71" t="str">
+        <v>3fa68e1c-d8b7-473f-87b5-18fb6b736aca</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -1208,6 +1421,9 @@
       <c r="D72" t="str">
         <v>Name 71</v>
       </c>
+      <c r="E72" t="str">
+        <v>9ec264ae-f0d7-4515-9f6f-aceb96f3d27a</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1219,6 +1435,9 @@
       <c r="D73" t="str">
         <v>Name 72</v>
       </c>
+      <c r="E73" t="str">
+        <v>bf18d347-a5d2-463f-b8fe-7373b34227ce</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -1230,6 +1449,9 @@
       <c r="D74" t="str">
         <v>Name 73</v>
       </c>
+      <c r="E74" t="str">
+        <v>8e56f0ee-fd9c-4700-a775-8e76cf49229d</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -1241,6 +1463,9 @@
       <c r="D75" t="str">
         <v>Name 74</v>
       </c>
+      <c r="E75" t="str">
+        <v>f3372bc8-38bd-41df-8730-9732ad452023</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1252,6 +1477,9 @@
       <c r="D76" t="str">
         <v>Name 75</v>
       </c>
+      <c r="E76" t="str">
+        <v>abf4b800-ae81-4595-8a1d-c662f6412453</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1263,6 +1491,9 @@
       <c r="D77" t="str">
         <v>Name 76</v>
       </c>
+      <c r="E77" t="str">
+        <v>a21b0e98-0958-4139-b32e-de42c8831b6d</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -1274,6 +1505,9 @@
       <c r="D78" t="str">
         <v>Name 77</v>
       </c>
+      <c r="E78" t="str">
+        <v>95db3815-304a-46ed-8410-9d31b56ecc33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -1285,6 +1519,9 @@
       <c r="D79" t="str">
         <v>Name 78</v>
       </c>
+      <c r="E79" t="str">
+        <v>d5604cb3-13a4-4dce-9565-67290cb4bcae</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1296,6 +1533,9 @@
       <c r="D80" t="str">
         <v>Name 79</v>
       </c>
+      <c r="E80" t="str">
+        <v>4b6e030f-f781-4371-93f8-e1a2249f81c4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1307,6 +1547,9 @@
       <c r="D81" t="str">
         <v>Name 80</v>
       </c>
+      <c r="E81" t="str">
+        <v>3fcce84a-672a-478a-8826-1136e4b5c2b1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1318,6 +1561,9 @@
       <c r="D82" t="str">
         <v>Name 81</v>
       </c>
+      <c r="E82" t="str">
+        <v>0eba97dd-1863-44dc-a4a0-08fec8f04be3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -1329,6 +1575,9 @@
       <c r="D83" t="str">
         <v>Name 82</v>
       </c>
+      <c r="E83" t="str">
+        <v>b3437cb4-29ed-4e9c-827d-24b11e2a49f1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -1340,6 +1589,9 @@
       <c r="D84" t="str">
         <v>Name 83</v>
       </c>
+      <c r="E84" t="str">
+        <v>36bec050-13cb-49d9-abe5-3b157a9b0755</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -1351,6 +1603,9 @@
       <c r="D85" t="str">
         <v>Name 84</v>
       </c>
+      <c r="E85" t="str">
+        <v>93d287af-d0a9-4fa1-bc8d-d26f1c4369f6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -1362,6 +1617,9 @@
       <c r="D86" t="str">
         <v>Name 85</v>
       </c>
+      <c r="E86" t="str">
+        <v>73aaaadb-f838-4ac6-bb87-e4d114018351</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -1373,6 +1631,9 @@
       <c r="D87" t="str">
         <v>Name 86</v>
       </c>
+      <c r="E87" t="str">
+        <v>a83a162f-6b29-41ae-a5da-56803f0457d5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -1384,6 +1645,9 @@
       <c r="D88" t="str">
         <v>Name 87</v>
       </c>
+      <c r="E88" t="str">
+        <v>9274c7df-90f8-4a06-9eb0-d253fb747e09</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -1395,6 +1659,9 @@
       <c r="D89" t="str">
         <v>Name 88</v>
       </c>
+      <c r="E89" t="str">
+        <v>f4a2faff-61d9-4137-acca-cd46cc97b85d</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -1406,6 +1673,9 @@
       <c r="D90" t="str">
         <v>Name 89</v>
       </c>
+      <c r="E90" t="str">
+        <v>f2781b37-1801-4c4b-bd79-fd0416dc2d36</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -1417,6 +1687,9 @@
       <c r="D91" t="str">
         <v>Name 90</v>
       </c>
+      <c r="E91" t="str">
+        <v>bb86a03c-90db-4623-b7f9-ab5e3491f86b</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -1428,6 +1701,9 @@
       <c r="D92" t="str">
         <v>Name 91</v>
       </c>
+      <c r="E92" t="str">
+        <v>da8971ba-fd46-4f93-98bc-05c309b04fcc</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -1439,6 +1715,9 @@
       <c r="D93" t="str">
         <v>Name 92</v>
       </c>
+      <c r="E93" t="str">
+        <v>dcdb78b9-beae-40ed-be8d-cd2e8ad8a42b</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -1450,6 +1729,9 @@
       <c r="D94" t="str">
         <v>Name 93</v>
       </c>
+      <c r="E94" t="str">
+        <v>e37f3e43-6a02-433f-b8cf-b89413a7153c</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -1461,6 +1743,9 @@
       <c r="D95" t="str">
         <v>Name 94</v>
       </c>
+      <c r="E95" t="str">
+        <v>8cf7e70e-33f5-49a7-a81d-8fe76648cc1a</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -1472,6 +1757,9 @@
       <c r="D96" t="str">
         <v>Name 95</v>
       </c>
+      <c r="E96" t="str">
+        <v>01d4cef0-990d-488d-a492-f6adeb1bc1b6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -1483,6 +1771,9 @@
       <c r="D97" t="str">
         <v>Name 96</v>
       </c>
+      <c r="E97" t="str">
+        <v>a9907a89-6399-414f-8efd-6e931c7f7aa7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -1494,6 +1785,9 @@
       <c r="D98" t="str">
         <v>Name 97</v>
       </c>
+      <c r="E98" t="str">
+        <v>9cb69908-d4c0-4c0b-94c3-80a83f9c0b40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -1505,6 +1799,9 @@
       <c r="D99" t="str">
         <v>Name 98</v>
       </c>
+      <c r="E99" t="str">
+        <v>76520427-ae8f-49ca-ae14-274b68db38b9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -1516,6 +1813,9 @@
       <c r="D100" t="str">
         <v>Name 99</v>
       </c>
+      <c r="E100" t="str">
+        <v>a55d1e85-b795-43f9-8e3f-f189f0459d46</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -1527,6 +1827,9 @@
       <c r="D101" t="str">
         <v>Name 100</v>
       </c>
+      <c r="E101" t="str">
+        <v>2c24b4cd-c250-4b22-a68d-6e3455d02a3d</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -1538,6 +1841,9 @@
       <c r="D102" t="str">
         <v>Name 101</v>
       </c>
+      <c r="E102" t="str">
+        <v>35572164-6a3d-432f-a249-78d82c523827</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -1549,6 +1855,9 @@
       <c r="D103" t="str">
         <v>Name 102</v>
       </c>
+      <c r="E103" t="str">
+        <v>0c90b4d3-c123-4e70-a322-e5a9f02f58fe</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -1560,6 +1869,9 @@
       <c r="D104" t="str">
         <v>Name 103</v>
       </c>
+      <c r="E104" t="str">
+        <v>a3b0a8ff-8a89-4d21-b3e5-e670f57e143f</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -1571,6 +1883,9 @@
       <c r="D105" t="str">
         <v>Name 104</v>
       </c>
+      <c r="E105" t="str">
+        <v>ffcb4607-6715-446f-81d5-7a498a016f72</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -1582,6 +1897,9 @@
       <c r="D106" t="str">
         <v>Name 105</v>
       </c>
+      <c r="E106" t="str">
+        <v>bd6602d7-49e0-44ce-b7fd-7db6abf9c4f3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -1593,6 +1911,9 @@
       <c r="D107" t="str">
         <v>Name 106</v>
       </c>
+      <c r="E107" t="str">
+        <v>d6559a6c-dd69-4c1f-bb55-dadf2c71d8ef</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -1604,6 +1925,9 @@
       <c r="D108" t="str">
         <v>Name 107</v>
       </c>
+      <c r="E108" t="str">
+        <v>609ea949-ceed-4904-b85f-53cfd9b5f5d9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -1615,6 +1939,9 @@
       <c r="D109" t="str">
         <v>Name 108</v>
       </c>
+      <c r="E109" t="str">
+        <v>bed3deb9-be91-41e7-ba00-b999b705108a</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -1626,6 +1953,9 @@
       <c r="D110" t="str">
         <v>Name 109</v>
       </c>
+      <c r="E110" t="str">
+        <v>c7664490-0f1f-4903-adbd-b1f3eadeb80f</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -1637,6 +1967,9 @@
       <c r="D111" t="str">
         <v>Name 110</v>
       </c>
+      <c r="E111" t="str">
+        <v>ab13458e-deaa-44f2-a6bd-53797db7152b</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -1648,6 +1981,9 @@
       <c r="D112" t="str">
         <v>Name 111</v>
       </c>
+      <c r="E112" t="str">
+        <v>69db2589-87ed-49b2-9545-ffefebdf3f21</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -1659,6 +1995,9 @@
       <c r="D113" t="str">
         <v>Name 112</v>
       </c>
+      <c r="E113" t="str">
+        <v>3840fd7c-0e96-477f-bd2e-2323ddb178be</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -1670,6 +2009,9 @@
       <c r="D114" t="str">
         <v>Name 113</v>
       </c>
+      <c r="E114" t="str">
+        <v>a8b5f7bf-fefa-45a3-a715-e3042af36519</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -1681,6 +2023,9 @@
       <c r="D115" t="str">
         <v>Name 114</v>
       </c>
+      <c r="E115" t="str">
+        <v>a54c4e4d-5360-4641-81f0-fd6a39f1366d</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -1692,6 +2037,9 @@
       <c r="D116" t="str">
         <v>Name 115</v>
       </c>
+      <c r="E116" t="str">
+        <v>49645873-324c-4433-9819-cd8c59fa6794</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -1703,6 +2051,9 @@
       <c r="D117" t="str">
         <v>Name 116</v>
       </c>
+      <c r="E117" t="str">
+        <v>ccd49efa-6c23-49cf-b44d-19e4946d82eb</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -1714,6 +2065,9 @@
       <c r="D118" t="str">
         <v>Name 117</v>
       </c>
+      <c r="E118" t="str">
+        <v>9e2b8760-b650-4e11-86c2-ea282912f518</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -1725,6 +2079,9 @@
       <c r="D119" t="str">
         <v>Name 118</v>
       </c>
+      <c r="E119" t="str">
+        <v>52177944-d007-4c5f-8f4e-fabb53f7cc68</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -1736,6 +2093,9 @@
       <c r="D120" t="str">
         <v>Name 119</v>
       </c>
+      <c r="E120" t="str">
+        <v>92b41fa3-c85c-4a81-ac8b-20efbdca1ec3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -1747,6 +2107,9 @@
       <c r="D121" t="str">
         <v>Name 120</v>
       </c>
+      <c r="E121" t="str">
+        <v>952023bb-b841-4675-a18b-7b9f1e4382e2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -1758,6 +2121,9 @@
       <c r="D122" t="str">
         <v>Name 121</v>
       </c>
+      <c r="E122" t="str">
+        <v>fce3869e-33a5-4678-82ca-fb1760f88178</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -1769,6 +2135,9 @@
       <c r="D123" t="str">
         <v>Name 122</v>
       </c>
+      <c r="E123" t="str">
+        <v>52752a18-5c31-4655-8742-3d87bb675874</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -1780,6 +2149,9 @@
       <c r="D124" t="str">
         <v>Name 123</v>
       </c>
+      <c r="E124" t="str">
+        <v>0afbefe7-3f43-4146-be82-c06e4a495b38</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -1791,6 +2163,9 @@
       <c r="D125" t="str">
         <v>Name 124</v>
       </c>
+      <c r="E125" t="str">
+        <v>94b87cce-6bbd-49b3-aa50-04caf4b29e61</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -1802,6 +2177,9 @@
       <c r="D126" t="str">
         <v>Name 125</v>
       </c>
+      <c r="E126" t="str">
+        <v>35cd34d1-f163-4fb7-a57f-1c16bdd7775e</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -1813,6 +2191,9 @@
       <c r="D127" t="str">
         <v>Name 126</v>
       </c>
+      <c r="E127" t="str">
+        <v>8a11d0ed-f523-42f7-a0f1-4fee00c89753</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -1824,6 +2205,9 @@
       <c r="D128" t="str">
         <v>Name 127</v>
       </c>
+      <c r="E128" t="str">
+        <v>d1393c0c-1177-43f6-8392-8c3e94967642</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -1835,6 +2219,9 @@
       <c r="D129" t="str">
         <v>Name 128</v>
       </c>
+      <c r="E129" t="str">
+        <v>39f7a6ff-d5f2-499e-893c-95aa658150d2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -1846,6 +2233,9 @@
       <c r="D130" t="str">
         <v>Name 129</v>
       </c>
+      <c r="E130" t="str">
+        <v>945d96a3-daa8-4ec3-b446-958c9f3e86f1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -1857,6 +2247,9 @@
       <c r="D131" t="str">
         <v>Name 130</v>
       </c>
+      <c r="E131" t="str">
+        <v>7bcece06-12b2-464f-9e26-02b463101ea7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -1868,6 +2261,9 @@
       <c r="D132" t="str">
         <v>Name 131</v>
       </c>
+      <c r="E132" t="str">
+        <v>f3fb554c-3a1c-4344-8530-89c54147df6f</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -1879,6 +2275,9 @@
       <c r="D133" t="str">
         <v>Name 132</v>
       </c>
+      <c r="E133" t="str">
+        <v>4c4e9c18-064e-48ae-89ae-b8bdcbefb14d</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -1890,6 +2289,9 @@
       <c r="D134" t="str">
         <v>Name 133</v>
       </c>
+      <c r="E134" t="str">
+        <v>6279d9b0-c07d-492f-883b-1088000527d7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -1901,6 +2303,9 @@
       <c r="D135" t="str">
         <v>Name 134</v>
       </c>
+      <c r="E135" t="str">
+        <v>dcbd4ed0-4311-4f10-9b42-c752044c5c88</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -1912,6 +2317,9 @@
       <c r="D136" t="str">
         <v>Name 135</v>
       </c>
+      <c r="E136" t="str">
+        <v>a51b20f0-d0a5-45d0-b5ea-5067429975b2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -1923,6 +2331,9 @@
       <c r="D137" t="str">
         <v>Name 136</v>
       </c>
+      <c r="E137" t="str">
+        <v>9c369675-6b87-44bd-8e0e-47ee9ef28df2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -1934,6 +2345,9 @@
       <c r="D138" t="str">
         <v>Name 137</v>
       </c>
+      <c r="E138" t="str">
+        <v>0bf28f58-2355-4736-8990-9f26c173eddc</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -1945,6 +2359,9 @@
       <c r="D139" t="str">
         <v>Name 138</v>
       </c>
+      <c r="E139" t="str">
+        <v>3bcb1817-b863-423c-a95a-301e52f0b17a</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -1956,6 +2373,9 @@
       <c r="D140" t="str">
         <v>Name 139</v>
       </c>
+      <c r="E140" t="str">
+        <v>3bd9d3b0-98ad-4b63-8b04-32cd9535e94b</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -1967,6 +2387,9 @@
       <c r="D141" t="str">
         <v>Name 140</v>
       </c>
+      <c r="E141" t="str">
+        <v>fc5d3bcb-317d-4cc4-918c-86ec889f9647</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -1978,6 +2401,9 @@
       <c r="D142" t="str">
         <v>Name 141</v>
       </c>
+      <c r="E142" t="str">
+        <v>0f97b115-b755-408c-b3a0-f79de9650561</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -1989,6 +2415,9 @@
       <c r="D143" t="str">
         <v>Name 142</v>
       </c>
+      <c r="E143" t="str">
+        <v>0d2f2da2-ce5b-4e54-ac66-9ca1be796b2c</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -2000,6 +2429,9 @@
       <c r="D144" t="str">
         <v>Name 143</v>
       </c>
+      <c r="E144" t="str">
+        <v>4f39c395-8a83-446c-9e7b-0b0b8d936cde</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -2011,6 +2443,9 @@
       <c r="D145" t="str">
         <v>Name 144</v>
       </c>
+      <c r="E145" t="str">
+        <v>027621f4-1548-401c-9071-d1538e6dae3c</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -2022,6 +2457,9 @@
       <c r="D146" t="str">
         <v>Name 145</v>
       </c>
+      <c r="E146" t="str">
+        <v>eae211b3-a8a9-4325-805f-26b7c70c901e</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -2033,6 +2471,9 @@
       <c r="D147" t="str">
         <v>Name 146</v>
       </c>
+      <c r="E147" t="str">
+        <v>26fa2cea-4b69-40b1-9fd5-19fd93d74ac9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -2044,6 +2485,9 @@
       <c r="D148" t="str">
         <v>Name 147</v>
       </c>
+      <c r="E148" t="str">
+        <v>c1e73d94-2dea-4f8a-a391-e6180dbc9518</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -2055,6 +2499,9 @@
       <c r="D149" t="str">
         <v>Name 148</v>
       </c>
+      <c r="E149" t="str">
+        <v>5c058b9c-0c12-4949-b64f-fef024e091d0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -2066,6 +2513,9 @@
       <c r="D150" t="str">
         <v>Name 149</v>
       </c>
+      <c r="E150" t="str">
+        <v>536b5c52-3ec9-4836-8586-d286c595126f</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -2077,6 +2527,9 @@
       <c r="D151" t="str">
         <v>Name 150</v>
       </c>
+      <c r="E151" t="str">
+        <v>81d1ea92-f398-4915-8237-d0a002b0022e</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -2088,6 +2541,9 @@
       <c r="D152" t="str">
         <v>Name 151</v>
       </c>
+      <c r="E152" t="str">
+        <v>fb701531-77c3-4a07-b49e-85cda09f8f14</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -2099,6 +2555,9 @@
       <c r="D153" t="str">
         <v>Name 152</v>
       </c>
+      <c r="E153" t="str">
+        <v>47fb7d07-1fd4-4997-9c48-94e01d24c31d</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -2110,6 +2569,9 @@
       <c r="D154" t="str">
         <v>Name 153</v>
       </c>
+      <c r="E154" t="str">
+        <v>1bf78982-74c8-4629-8d5f-0987f06e31bc</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -2121,6 +2583,9 @@
       <c r="D155" t="str">
         <v>Name 154</v>
       </c>
+      <c r="E155" t="str">
+        <v>e0c2ff42-a1e3-4b65-aba5-df7b8455058b</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -2132,6 +2597,9 @@
       <c r="D156" t="str">
         <v>Name 155</v>
       </c>
+      <c r="E156" t="str">
+        <v>dffbd9cb-d4e3-45ee-888b-3827ae53dd66</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -2143,6 +2611,9 @@
       <c r="D157" t="str">
         <v>Name 156</v>
       </c>
+      <c r="E157" t="str">
+        <v>bed21415-bbcf-48ed-8ad6-e52a6b99f257</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -2154,6 +2625,9 @@
       <c r="D158" t="str">
         <v>Name 157</v>
       </c>
+      <c r="E158" t="str">
+        <v>0098b025-e158-428b-94ad-9d4cac059476</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -2165,6 +2639,9 @@
       <c r="D159" t="str">
         <v>Name 158</v>
       </c>
+      <c r="E159" t="str">
+        <v>76f2e547-db7f-42b7-b9b6-53757e91b905</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -2176,6 +2653,9 @@
       <c r="D160" t="str">
         <v>Name 159</v>
       </c>
+      <c r="E160" t="str">
+        <v>8a571095-42f6-438a-91ad-57f99c65db03</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -2187,6 +2667,9 @@
       <c r="D161" t="str">
         <v>Name 160</v>
       </c>
+      <c r="E161" t="str">
+        <v>cde992a6-415a-43f2-95de-56a90990921f</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -2198,6 +2681,9 @@
       <c r="D162" t="str">
         <v>Name 161</v>
       </c>
+      <c r="E162" t="str">
+        <v>a35c1c54-6d0d-4061-baa3-a3ea5071c89b</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -2209,6 +2695,9 @@
       <c r="D163" t="str">
         <v>Name 162</v>
       </c>
+      <c r="E163" t="str">
+        <v>9d1d37e0-c9d0-49e1-aadc-2bd8d2b01160</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -2220,6 +2709,9 @@
       <c r="D164" t="str">
         <v>Name 163</v>
       </c>
+      <c r="E164" t="str">
+        <v>cd8192dc-928f-4cf0-847b-142f6f466f9c</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -2231,6 +2723,9 @@
       <c r="D165" t="str">
         <v>Name 164</v>
       </c>
+      <c r="E165" t="str">
+        <v>de949212-6a6b-41e6-b18e-eb63c695a89c</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -2242,6 +2737,9 @@
       <c r="D166" t="str">
         <v>Name 165</v>
       </c>
+      <c r="E166" t="str">
+        <v>568908e8-bd3c-4e05-b040-3145c766ccee</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -2253,6 +2751,9 @@
       <c r="D167" t="str">
         <v>Name 166</v>
       </c>
+      <c r="E167" t="str">
+        <v>a03ca38e-d341-4445-9fe0-8af663f3cc28</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -2264,6 +2765,9 @@
       <c r="D168" t="str">
         <v>Name 167</v>
       </c>
+      <c r="E168" t="str">
+        <v>4ed4ee4c-f6b3-49f2-9e9e-6c40efd1497e</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -2275,6 +2779,9 @@
       <c r="D169" t="str">
         <v>Name 168</v>
       </c>
+      <c r="E169" t="str">
+        <v>a34db240-1596-4afa-b43d-bf9b98d9bfe8</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -2286,6 +2793,9 @@
       <c r="D170" t="str">
         <v>Name 169</v>
       </c>
+      <c r="E170" t="str">
+        <v>2cd0d069-4198-47c1-a776-75f7b2fba232</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -2297,6 +2807,9 @@
       <c r="D171" t="str">
         <v>Name 170</v>
       </c>
+      <c r="E171" t="str">
+        <v>88d2ca51-ea2f-4bd0-a2b8-2c87c0aabd62</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -2308,6 +2821,9 @@
       <c r="D172" t="str">
         <v>Name 171</v>
       </c>
+      <c r="E172" t="str">
+        <v>0b4f48bc-b2e0-4fbe-b5d4-17cacade4365</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -2319,6 +2835,9 @@
       <c r="D173" t="str">
         <v>Name 172</v>
       </c>
+      <c r="E173" t="str">
+        <v>dfd23b58-ef19-4c10-9a21-ac96a9f550e2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -2330,6 +2849,9 @@
       <c r="D174" t="str">
         <v>Name 173</v>
       </c>
+      <c r="E174" t="str">
+        <v>b2a1420e-6a48-4edd-ba68-336a5532c4c6</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -2341,6 +2863,9 @@
       <c r="D175" t="str">
         <v>Name 174</v>
       </c>
+      <c r="E175" t="str">
+        <v>9ef6fabb-a0db-4a90-bab1-2c2b90ba0033</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -2352,6 +2877,9 @@
       <c r="D176" t="str">
         <v>Name 175</v>
       </c>
+      <c r="E176" t="str">
+        <v>9745dce1-7c25-4cb4-9f8b-06c069d4a35c</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -2363,6 +2891,9 @@
       <c r="D177" t="str">
         <v>Name 176</v>
       </c>
+      <c r="E177" t="str">
+        <v>91017c4b-3f9e-46d6-af0c-97a581d6eaed</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -2374,6 +2905,9 @@
       <c r="D178" t="str">
         <v>Name 177</v>
       </c>
+      <c r="E178" t="str">
+        <v>03d185f2-dd28-4290-b0f6-da307448bca6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -2385,6 +2919,9 @@
       <c r="D179" t="str">
         <v>Name 178</v>
       </c>
+      <c r="E179" t="str">
+        <v>e2717346-64f3-493f-949d-32c026979726</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -2396,6 +2933,9 @@
       <c r="D180" t="str">
         <v>Name 179</v>
       </c>
+      <c r="E180" t="str">
+        <v>c427ce6d-2d04-458c-9724-090135fa5e80</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -2407,6 +2947,9 @@
       <c r="D181" t="str">
         <v>Name 180</v>
       </c>
+      <c r="E181" t="str">
+        <v>ae715163-3a1c-4506-9757-150daad768c4</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -2418,6 +2961,9 @@
       <c r="D182" t="str">
         <v>Name 181</v>
       </c>
+      <c r="E182" t="str">
+        <v>fe2eabc9-c32b-41a1-88c9-2fb16d388b1b</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -2429,6 +2975,9 @@
       <c r="D183" t="str">
         <v>Name 182</v>
       </c>
+      <c r="E183" t="str">
+        <v>a807fd48-b012-4c4d-bbea-4b7147f257bf</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -2440,6 +2989,9 @@
       <c r="D184" t="str">
         <v>Name 183</v>
       </c>
+      <c r="E184" t="str">
+        <v>a4c16a04-59fd-4ffa-b8ca-8016c1a0278d</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -2451,6 +3003,9 @@
       <c r="D185" t="str">
         <v>Name 184</v>
       </c>
+      <c r="E185" t="str">
+        <v>83e7a495-61d0-4c96-b617-9a5808932c03</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -2462,6 +3017,9 @@
       <c r="D186" t="str">
         <v>Name 185</v>
       </c>
+      <c r="E186" t="str">
+        <v>9d6dab77-bafe-428a-a97d-fa468e5b52ca</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -2473,6 +3031,9 @@
       <c r="D187" t="str">
         <v>Name 186</v>
       </c>
+      <c r="E187" t="str">
+        <v>869df090-613a-4cb5-b586-184e096761c5</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -2484,6 +3045,9 @@
       <c r="D188" t="str">
         <v>Name 187</v>
       </c>
+      <c r="E188" t="str">
+        <v>b7b23d73-eaaa-46f4-bf88-0b676fd91fe6</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -2495,6 +3059,9 @@
       <c r="D189" t="str">
         <v>Name 188</v>
       </c>
+      <c r="E189" t="str">
+        <v>5a1b5149-f8f1-408e-98fe-9097e26a0dde</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -2506,6 +3073,9 @@
       <c r="D190" t="str">
         <v>Name 189</v>
       </c>
+      <c r="E190" t="str">
+        <v>f268179c-1e4a-434a-8f59-47ba8e54311c</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -2517,6 +3087,9 @@
       <c r="D191" t="str">
         <v>Name 190</v>
       </c>
+      <c r="E191" t="str">
+        <v>2aed3e7d-ee2e-4f02-ae5e-b5633cc5bba5</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -2528,6 +3101,9 @@
       <c r="D192" t="str">
         <v>Name 191</v>
       </c>
+      <c r="E192" t="str">
+        <v>1ead7192-c2bf-48fa-b4b6-a3be054a5721</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -2539,6 +3115,9 @@
       <c r="D193" t="str">
         <v>Name 192</v>
       </c>
+      <c r="E193" t="str">
+        <v>29f5ce9c-2493-4eb3-b8e1-dce723eeea84</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -2550,6 +3129,9 @@
       <c r="D194" t="str">
         <v>Name 193</v>
       </c>
+      <c r="E194" t="str">
+        <v>45996707-7c87-4fb5-a73e-345f759aafcc</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -2561,6 +3143,9 @@
       <c r="D195" t="str">
         <v>Name 194</v>
       </c>
+      <c r="E195" t="str">
+        <v>169d9686-a22d-4ea7-8dc9-04b148dcc051</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -2572,6 +3157,9 @@
       <c r="D196" t="str">
         <v>Name 195</v>
       </c>
+      <c r="E196" t="str">
+        <v>e978add6-bd9f-48b5-8068-dc2c6cfddaff</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -2583,6 +3171,9 @@
       <c r="D197" t="str">
         <v>Name 196</v>
       </c>
+      <c r="E197" t="str">
+        <v>c90f7018-3fdf-4e37-9e73-5e60453328bb</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -2594,6 +3185,9 @@
       <c r="D198" t="str">
         <v>Name 197</v>
       </c>
+      <c r="E198" t="str">
+        <v>33f25158-68e2-428e-a1a9-4d6dbfd0f810</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -2605,6 +3199,9 @@
       <c r="D199" t="str">
         <v>Name 198</v>
       </c>
+      <c r="E199" t="str">
+        <v>8b522d56-db4c-4f00-9ebe-5ca393168dc9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -2616,6 +3213,9 @@
       <c r="D200" t="str">
         <v>Name 199</v>
       </c>
+      <c r="E200" t="str">
+        <v>1202ab5e-ba19-48f8-8a7d-e7870af4dd2c</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -2627,6 +3227,9 @@
       <c r="D201" t="str">
         <v>Name 200</v>
       </c>
+      <c r="E201" t="str">
+        <v>50c197b0-c6d2-42c5-84d6-248b1efe483c</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -2638,6 +3241,9 @@
       <c r="D202" t="str">
         <v>Name 201</v>
       </c>
+      <c r="E202" t="str">
+        <v>933be55f-6a6c-41d0-b7c3-0752cb3601e0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -2649,6 +3255,9 @@
       <c r="D203" t="str">
         <v>Name 202</v>
       </c>
+      <c r="E203" t="str">
+        <v>d3f70a2d-0f50-4480-a31e-160bacacddc6</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -2660,6 +3269,9 @@
       <c r="D204" t="str">
         <v>Name 203</v>
       </c>
+      <c r="E204" t="str">
+        <v>a4831d1c-f8c3-4cb2-a55e-9c6fe6a7824b</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -2671,6 +3283,9 @@
       <c r="D205" t="str">
         <v>Name 204</v>
       </c>
+      <c r="E205" t="str">
+        <v>87cf69b8-bd3e-4b98-b5ec-296a3cd1d0bb</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -2682,6 +3297,9 @@
       <c r="D206" t="str">
         <v>Name 205</v>
       </c>
+      <c r="E206" t="str">
+        <v>370fd2a2-ddb9-4c44-b667-fdd56f7c2733</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -2693,6 +3311,9 @@
       <c r="D207" t="str">
         <v>Name 206</v>
       </c>
+      <c r="E207" t="str">
+        <v>216617b5-0bd4-423e-9337-8418becf99f2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -2704,6 +3325,9 @@
       <c r="D208" t="str">
         <v>Name 207</v>
       </c>
+      <c r="E208" t="str">
+        <v>955852c4-83f4-4c2b-9370-5ef8a7eb7977</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -2715,6 +3339,9 @@
       <c r="D209" t="str">
         <v>Name 208</v>
       </c>
+      <c r="E209" t="str">
+        <v>f0d2b311-e301-4a75-8a9e-319658414f82</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -2726,6 +3353,9 @@
       <c r="D210" t="str">
         <v>Name 209</v>
       </c>
+      <c r="E210" t="str">
+        <v>a3c23779-06ef-48f6-b1ea-9ec6621849e7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -2737,6 +3367,9 @@
       <c r="D211" t="str">
         <v>Name 210</v>
       </c>
+      <c r="E211" t="str">
+        <v>e9cadac6-0671-428d-974b-eb19e1d9404c</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -2748,6 +3381,9 @@
       <c r="D212" t="str">
         <v>Name 211</v>
       </c>
+      <c r="E212" t="str">
+        <v>364751ab-0145-4c57-bc8c-e0fba0176b4c</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -2759,6 +3395,9 @@
       <c r="D213" t="str">
         <v>Name 212</v>
       </c>
+      <c r="E213" t="str">
+        <v>f4a7a701-690e-4f21-85dd-a1c91e732203</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -2770,6 +3409,9 @@
       <c r="D214" t="str">
         <v>Name 213</v>
       </c>
+      <c r="E214" t="str">
+        <v>eea8b428-0de8-4b12-82d4-b3e9bb570848</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -2781,6 +3423,9 @@
       <c r="D215" t="str">
         <v>Name 214</v>
       </c>
+      <c r="E215" t="str">
+        <v>5c6e136c-6185-4dab-b256-cd8bbd25985d</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -2792,6 +3437,9 @@
       <c r="D216" t="str">
         <v>Name 215</v>
       </c>
+      <c r="E216" t="str">
+        <v>11485bb9-889d-4b33-95a2-7444c65c444c</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -2803,6 +3451,9 @@
       <c r="D217" t="str">
         <v>Name 216</v>
       </c>
+      <c r="E217" t="str">
+        <v>031f256f-d61b-49e2-a153-7981875073ec</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -2814,6 +3465,9 @@
       <c r="D218" t="str">
         <v>Name 217</v>
       </c>
+      <c r="E218" t="str">
+        <v>2f2e719a-7fc9-4ec3-b7ce-31912e524f45</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -2825,6 +3479,9 @@
       <c r="D219" t="str">
         <v>Name 218</v>
       </c>
+      <c r="E219" t="str">
+        <v>e5809205-177b-491a-9b57-4d57dca1da3a</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -2836,6 +3493,9 @@
       <c r="D220" t="str">
         <v>Name 219</v>
       </c>
+      <c r="E220" t="str">
+        <v>9bf81481-7e26-4978-ab87-6270262d93c0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -2847,6 +3507,9 @@
       <c r="D221" t="str">
         <v>Name 220</v>
       </c>
+      <c r="E221" t="str">
+        <v>660f4acc-de33-4a73-83cd-5d7b5e07ed9c</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -2858,6 +3521,9 @@
       <c r="D222" t="str">
         <v>Name 221</v>
       </c>
+      <c r="E222" t="str">
+        <v>c6428d00-98c6-4a85-a66e-e8843544dbaa</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -2869,6 +3535,9 @@
       <c r="D223" t="str">
         <v>Name 222</v>
       </c>
+      <c r="E223" t="str">
+        <v>0baef7d6-8074-4eb9-a006-f623111f6074</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -2880,6 +3549,9 @@
       <c r="D224" t="str">
         <v>Name 223</v>
       </c>
+      <c r="E224" t="str">
+        <v>3785241b-e01f-457b-8b09-bc433814aa5c</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -2891,6 +3563,9 @@
       <c r="D225" t="str">
         <v>Name 224</v>
       </c>
+      <c r="E225" t="str">
+        <v>e8cc2878-4699-4563-8524-2f04b189633c</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -2902,6 +3577,9 @@
       <c r="D226" t="str">
         <v>Name 225</v>
       </c>
+      <c r="E226" t="str">
+        <v>233df79a-76a3-400a-9642-8857575f0833</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -2913,6 +3591,9 @@
       <c r="D227" t="str">
         <v>Name 226</v>
       </c>
+      <c r="E227" t="str">
+        <v>ee50874e-c18d-4cb4-9d4a-acf6f80de267</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -2924,6 +3605,9 @@
       <c r="D228" t="str">
         <v>Name 227</v>
       </c>
+      <c r="E228" t="str">
+        <v>dc8a11df-b5c1-4085-8871-1500ae99bf4a</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -2935,6 +3619,9 @@
       <c r="D229" t="str">
         <v>Name 228</v>
       </c>
+      <c r="E229" t="str">
+        <v>22aa6b07-3e5d-4f83-93bb-5ea006c719ee</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -2946,6 +3633,9 @@
       <c r="D230" t="str">
         <v>Name 229</v>
       </c>
+      <c r="E230" t="str">
+        <v>e44cdef2-c0f6-417e-9ffd-be086fc32cd1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
@@ -2957,6 +3647,9 @@
       <c r="D231" t="str">
         <v>Name 230</v>
       </c>
+      <c r="E231" t="str">
+        <v>674afb39-c957-48f9-9b21-25a05879b080</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -2968,6 +3661,9 @@
       <c r="D232" t="str">
         <v>Name 231</v>
       </c>
+      <c r="E232" t="str">
+        <v>ec17ec51-b079-47d8-bcbb-6b664e50c467</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -2979,6 +3675,9 @@
       <c r="D233" t="str">
         <v>Name 232</v>
       </c>
+      <c r="E233" t="str">
+        <v>608d6d19-b332-4a51-bc79-e5a9cbd8595e</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -2990,6 +3689,9 @@
       <c r="D234" t="str">
         <v>Name 233</v>
       </c>
+      <c r="E234" t="str">
+        <v>d8fd2d54-4de4-4351-b16d-1de079facd37</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -3001,6 +3703,9 @@
       <c r="D235" t="str">
         <v>Name 234</v>
       </c>
+      <c r="E235" t="str">
+        <v>83d74598-4527-4b76-8cd7-a4c4c6a45e4b</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -3012,6 +3717,9 @@
       <c r="D236" t="str">
         <v>Name 235</v>
       </c>
+      <c r="E236" t="str">
+        <v>2d24c58f-af6b-4f61-a5ef-c13cf013f96c</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -3023,6 +3731,9 @@
       <c r="D237" t="str">
         <v>Name 236</v>
       </c>
+      <c r="E237" t="str">
+        <v>4c68adb7-ad6e-49f7-9846-1b62097511d1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -3034,6 +3745,9 @@
       <c r="D238" t="str">
         <v>Name 237</v>
       </c>
+      <c r="E238" t="str">
+        <v>a5dc6e67-06c4-4321-83d6-8531c1235c2b</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -3045,6 +3759,9 @@
       <c r="D239" t="str">
         <v>Name 238</v>
       </c>
+      <c r="E239" t="str">
+        <v>99691531-5149-48a5-b89f-118a4c4685c9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -3056,6 +3773,9 @@
       <c r="D240" t="str">
         <v>Name 239</v>
       </c>
+      <c r="E240" t="str">
+        <v>4df8628d-310e-4034-b6d2-0fde5c8492a3</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -3067,6 +3787,9 @@
       <c r="D241" t="str">
         <v>Name 240</v>
       </c>
+      <c r="E241" t="str">
+        <v>8623b5d8-005d-4fed-8ce0-b39ab0017373</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -3078,6 +3801,9 @@
       <c r="D242" t="str">
         <v>Name 241</v>
       </c>
+      <c r="E242" t="str">
+        <v>b571c068-a846-4ea4-b5d5-1da7a4fb398e</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -3089,6 +3815,9 @@
       <c r="D243" t="str">
         <v>Name 242</v>
       </c>
+      <c r="E243" t="str">
+        <v>d062b5d6-c2bf-468b-8daf-749d935c54f7</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -3100,6 +3829,9 @@
       <c r="D244" t="str">
         <v>Name 243</v>
       </c>
+      <c r="E244" t="str">
+        <v>bdc639b1-97e6-4893-afa6-42ae7d9d035f</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -3111,6 +3843,9 @@
       <c r="D245" t="str">
         <v>Name 244</v>
       </c>
+      <c r="E245" t="str">
+        <v>8edfc4da-adac-4022-b498-90ef3116b963</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -3122,6 +3857,9 @@
       <c r="D246" t="str">
         <v>Name 245</v>
       </c>
+      <c r="E246" t="str">
+        <v>1191a154-d8c0-46da-8b86-34fdbb518bf5</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -3133,6 +3871,9 @@
       <c r="D247" t="str">
         <v>Name 246</v>
       </c>
+      <c r="E247" t="str">
+        <v>8433214b-ad32-4472-848b-6ef54cdece1e</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -3144,6 +3885,9 @@
       <c r="D248" t="str">
         <v>Name 247</v>
       </c>
+      <c r="E248" t="str">
+        <v>afae9d29-dec4-4b69-924b-894a8446fcf1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -3155,6 +3899,9 @@
       <c r="D249" t="str">
         <v>Name 248</v>
       </c>
+      <c r="E249" t="str">
+        <v>1a689755-d407-4abe-8a73-1d12608dec71</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -3166,6 +3913,9 @@
       <c r="D250" t="str">
         <v>Name 249</v>
       </c>
+      <c r="E250" t="str">
+        <v>660cdf1e-7762-473f-81e0-bc18cabf44b7</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -3177,6 +3927,9 @@
       <c r="D251" t="str">
         <v>Name 250</v>
       </c>
+      <c r="E251" t="str">
+        <v>6e6c7e46-0e2b-48af-86e5-14ba875689b3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -3188,6 +3941,9 @@
       <c r="D252" t="str">
         <v>Name 251</v>
       </c>
+      <c r="E252" t="str">
+        <v>d8bd5684-6512-4dc4-b8c7-9cc75619f88a</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -3199,6 +3955,9 @@
       <c r="D253" t="str">
         <v>Name 252</v>
       </c>
+      <c r="E253" t="str">
+        <v>3a2c2028-d132-4c00-9504-9a0165669d21</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -3210,6 +3969,9 @@
       <c r="D254" t="str">
         <v>Name 253</v>
       </c>
+      <c r="E254" t="str">
+        <v>931d7917-c3b1-4b35-a51b-36d3a7fa83b3</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -3221,6 +3983,9 @@
       <c r="D255" t="str">
         <v>Name 254</v>
       </c>
+      <c r="E255" t="str">
+        <v>66239289-f984-426b-961c-5c4c84cd1cf6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -3232,6 +3997,9 @@
       <c r="D256" t="str">
         <v>Name 255</v>
       </c>
+      <c r="E256" t="str">
+        <v>f951d02c-e815-4620-8003-01bd8cb28c53</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -3243,6 +4011,9 @@
       <c r="D257" t="str">
         <v>Name 256</v>
       </c>
+      <c r="E257" t="str">
+        <v>c8e0d83e-a53d-40e2-bc9e-b9209436a023</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -3254,6 +4025,9 @@
       <c r="D258" t="str">
         <v>Name 257</v>
       </c>
+      <c r="E258" t="str">
+        <v>e48f0c87-0e04-48a8-ac80-b1d368a9625e</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -3265,6 +4039,9 @@
       <c r="D259" t="str">
         <v>Name 258</v>
       </c>
+      <c r="E259" t="str">
+        <v>746cb102-34ac-47d8-9e65-c15f5ec99b56</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -3276,6 +4053,9 @@
       <c r="D260" t="str">
         <v>Name 259</v>
       </c>
+      <c r="E260" t="str">
+        <v>74a13173-2841-4be1-8ecc-9c1383b8c26f</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -3287,6 +4067,9 @@
       <c r="D261" t="str">
         <v>Name 260</v>
       </c>
+      <c r="E261" t="str">
+        <v>c0535bca-2135-4ae2-8f2c-0b17387432dd</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -3298,6 +4081,9 @@
       <c r="D262" t="str">
         <v>Name 261</v>
       </c>
+      <c r="E262" t="str">
+        <v>09c324fe-1c2a-42ad-87d3-060fde7b9693</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263">
@@ -3309,6 +4095,9 @@
       <c r="D263" t="str">
         <v>Name 262</v>
       </c>
+      <c r="E263" t="str">
+        <v>7804a476-cd92-4435-b1a7-868417a2e41d</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -3320,6 +4109,9 @@
       <c r="D264" t="str">
         <v>Name 263</v>
       </c>
+      <c r="E264" t="str">
+        <v>784c2c34-5e21-496c-b948-7460ac77798c</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265">
@@ -3331,6 +4123,9 @@
       <c r="D265" t="str">
         <v>Name 264</v>
       </c>
+      <c r="E265" t="str">
+        <v>e9b0bb69-b20f-4ba0-933f-8d797831f70d</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -3342,6 +4137,9 @@
       <c r="D266" t="str">
         <v>Name 265</v>
       </c>
+      <c r="E266" t="str">
+        <v>a6797a4e-6ed3-4fd6-9dff-eb8348c02e68</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -3353,6 +4151,9 @@
       <c r="D267" t="str">
         <v>Name 266</v>
       </c>
+      <c r="E267" t="str">
+        <v>48ed6318-c8a0-4d50-a778-dd41437b39b7</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -3364,6 +4165,9 @@
       <c r="D268" t="str">
         <v>Name 267</v>
       </c>
+      <c r="E268" t="str">
+        <v>4ed23ebd-e002-4b2e-b7a9-11d48db89725</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -3375,6 +4179,9 @@
       <c r="D269" t="str">
         <v>Name 268</v>
       </c>
+      <c r="E269" t="str">
+        <v>8bd42c11-bb09-41e6-99f9-bfe6d4f868e7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -3386,6 +4193,9 @@
       <c r="D270" t="str">
         <v>Name 269</v>
       </c>
+      <c r="E270" t="str">
+        <v>77338538-bede-4d8e-bc5b-90ede9027106</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -3397,6 +4207,9 @@
       <c r="D271" t="str">
         <v>Name 270</v>
       </c>
+      <c r="E271" t="str">
+        <v>7f9dcd99-90e9-43c9-a934-9a09bdd8ab14</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272">
@@ -3408,6 +4221,9 @@
       <c r="D272" t="str">
         <v>Name 271</v>
       </c>
+      <c r="E272" t="str">
+        <v>5c405095-fd7f-46ce-b7ed-f80ad5c0f078</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273">
@@ -3419,6 +4235,9 @@
       <c r="D273" t="str">
         <v>Name 272</v>
       </c>
+      <c r="E273" t="str">
+        <v>4a19a258-420d-47fa-b4db-4c0e450a847e</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274">
@@ -3430,6 +4249,9 @@
       <c r="D274" t="str">
         <v>Name 273</v>
       </c>
+      <c r="E274" t="str">
+        <v>3adf0066-8dc3-4367-8a95-2322187874ed</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275">
@@ -3441,6 +4263,9 @@
       <c r="D275" t="str">
         <v>Name 274</v>
       </c>
+      <c r="E275" t="str">
+        <v>6d8938cd-edae-4a35-8154-d8e0b416ff2e</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276">
@@ -3452,6 +4277,9 @@
       <c r="D276" t="str">
         <v>Name 275</v>
       </c>
+      <c r="E276" t="str">
+        <v>0326afe8-1d30-4083-a060-210118d23f1e</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277">
@@ -3463,6 +4291,9 @@
       <c r="D277" t="str">
         <v>Name 276</v>
       </c>
+      <c r="E277" t="str">
+        <v>55ef0aeb-b111-46ed-bff9-1db08231b1a8</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278">
@@ -3474,6 +4305,9 @@
       <c r="D278" t="str">
         <v>Name 277</v>
       </c>
+      <c r="E278" t="str">
+        <v>28dea6fc-f728-47b9-b1e2-88c0904c9fca</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279">
@@ -3485,6 +4319,9 @@
       <c r="D279" t="str">
         <v>Name 278</v>
       </c>
+      <c r="E279" t="str">
+        <v>6015db27-4ab3-4e18-979a-c94decda6fc2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280">
@@ -3496,6 +4333,9 @@
       <c r="D280" t="str">
         <v>Name 279</v>
       </c>
+      <c r="E280" t="str">
+        <v>39eb73a2-23d5-4a8d-b904-d3510abf0a2b</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281">
@@ -3507,6 +4347,9 @@
       <c r="D281" t="str">
         <v>Name 280</v>
       </c>
+      <c r="E281" t="str">
+        <v>0c75101a-fb16-4aaa-8083-25260d2f1c32</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282">
@@ -3518,6 +4361,9 @@
       <c r="D282" t="str">
         <v>Name 281</v>
       </c>
+      <c r="E282" t="str">
+        <v>f8dac262-e828-48f4-8170-c22d30c00af5</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283">
@@ -3529,6 +4375,9 @@
       <c r="D283" t="str">
         <v>Name 282</v>
       </c>
+      <c r="E283" t="str">
+        <v>d4ee3b7c-6f16-4e16-8047-19731fc741fe</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284">
@@ -3540,6 +4389,9 @@
       <c r="D284" t="str">
         <v>Name 283</v>
       </c>
+      <c r="E284" t="str">
+        <v>b92241c0-98a9-4f5d-b82e-f050ad82e020</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285">
@@ -3551,6 +4403,9 @@
       <c r="D285" t="str">
         <v>Name 284</v>
       </c>
+      <c r="E285" t="str">
+        <v>cb4659ea-ba3a-4541-bd69-cdf9bc2c2f9e</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286">
@@ -3562,6 +4417,9 @@
       <c r="D286" t="str">
         <v>Name 285</v>
       </c>
+      <c r="E286" t="str">
+        <v>785d0edb-6b6b-4da5-899d-02442c6d86be</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287">
@@ -3573,6 +4431,9 @@
       <c r="D287" t="str">
         <v>Name 286</v>
       </c>
+      <c r="E287" t="str">
+        <v>081bcf3a-e34f-4b64-ad64-73278c8bebd6</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288">
@@ -3584,6 +4445,9 @@
       <c r="D288" t="str">
         <v>Name 287</v>
       </c>
+      <c r="E288" t="str">
+        <v>352bd9d3-d7d0-4bbf-8b3c-5e2f53b7308e</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289">
@@ -3595,6 +4459,9 @@
       <c r="D289" t="str">
         <v>Name 288</v>
       </c>
+      <c r="E289" t="str">
+        <v>09683a54-33bd-4e6e-9624-9c66fae27bd9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290">
@@ -3606,6 +4473,9 @@
       <c r="D290" t="str">
         <v>Name 289</v>
       </c>
+      <c r="E290" t="str">
+        <v>e174b704-6db3-42f6-8ac4-686bd0a86895</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291">
@@ -3617,6 +4487,9 @@
       <c r="D291" t="str">
         <v>Name 290</v>
       </c>
+      <c r="E291" t="str">
+        <v>59aed55c-2d8c-4b03-b063-48648954f087</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292">
@@ -3628,6 +4501,9 @@
       <c r="D292" t="str">
         <v>Name 291</v>
       </c>
+      <c r="E292" t="str">
+        <v>78b3c7be-3fb1-4489-8ccd-3db3af66d739</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293">
@@ -3639,6 +4515,9 @@
       <c r="D293" t="str">
         <v>Name 292</v>
       </c>
+      <c r="E293" t="str">
+        <v>a5690fa8-d630-46de-9b22-08b0d61f95c6</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294">
@@ -3650,6 +4529,9 @@
       <c r="D294" t="str">
         <v>Name 293</v>
       </c>
+      <c r="E294" t="str">
+        <v>13e3de88-ba43-40f0-9081-d4c56837c0d6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295">
@@ -3661,6 +4543,9 @@
       <c r="D295" t="str">
         <v>Name 294</v>
       </c>
+      <c r="E295" t="str">
+        <v>94e08893-eccf-485a-9289-1077b1f72e95</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296">
@@ -3672,6 +4557,9 @@
       <c r="D296" t="str">
         <v>Name 295</v>
       </c>
+      <c r="E296" t="str">
+        <v>8043929d-d6e8-42c7-bd94-6c3bc9767d44</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297">
@@ -3683,6 +4571,9 @@
       <c r="D297" t="str">
         <v>Name 296</v>
       </c>
+      <c r="E297" t="str">
+        <v>9cddbe15-4fab-4d2f-9c60-42caaa5d4e67</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298">
@@ -3694,6 +4585,9 @@
       <c r="D298" t="str">
         <v>Name 297</v>
       </c>
+      <c r="E298" t="str">
+        <v>6f506918-0295-4e1e-9520-be5e9db81dad</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299">
@@ -3705,6 +4599,9 @@
       <c r="D299" t="str">
         <v>Name 298</v>
       </c>
+      <c r="E299" t="str">
+        <v>cb4dbfdd-10ae-406b-8ca4-d68420d87cdf</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300">
@@ -3716,6 +4613,9 @@
       <c r="D300" t="str">
         <v>Name 299</v>
       </c>
+      <c r="E300" t="str">
+        <v>78d19429-74b3-4050-bc6c-b199e3179a0c</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
@@ -3727,10 +4627,13 @@
       <c r="D301" t="str">
         <v>Name 300</v>
       </c>
+      <c r="E301" t="str">
+        <v>8647096d-c944-4a76-be57-0cf1a2e3af4c</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D301"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E301"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ok</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
         <v>age</v>
@@ -415,16 +415,13 @@
       <c r="D1" t="str">
         <v>name</v>
       </c>
-      <c r="E1" t="str">
-        <v>id</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>d3f8cefb-4a94-4e51-bbca-cd0d128120e2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
         <v>rt</v>
@@ -432,16 +429,13 @@
       <c r="D2" t="str">
         <v>Name 1</v>
       </c>
-      <c r="E2" t="str">
-        <v>af8ff2e8-21c5-433f-8054-98cbffc7d6f1</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <v>ee533db5-afb6-4098-afab-5e8e3e3f29cb</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <v>we</v>
@@ -449,16 +443,13 @@
       <c r="D3" t="str">
         <v>Name 2</v>
       </c>
-      <c r="E3" t="str">
-        <v>7b5cfcdd-0055-4829-90de-504112f9c77e</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="str">
+        <v>82ad56fa-2ae2-4032-8439-fe4fac4d212e</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
         <v>rt</v>
@@ -466,16 +457,13 @@
       <c r="D4" t="str">
         <v>Name 3</v>
       </c>
-      <c r="E4" t="str">
-        <v>5bc8448c-7467-4079-990c-45fbcc50746b</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="str">
+        <v>4785b670-0450-49b5-97f2-9ce1ac7421ec</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <v>dd</v>
@@ -483,4157 +471,3277 @@
       <c r="D5" t="str">
         <v>Name 4</v>
       </c>
-      <c r="E5" t="str">
-        <v>2dbd9e0e-041d-4b7f-b13a-7b8d7ac1d1f7</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="str">
+        <v>0f86a37b-9169-472c-bdd1-4d9d2442dcb4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="str">
         <v>Name 5</v>
       </c>
-      <c r="E6" t="str">
-        <v>c7494c6c-56d9-4775-815d-999aca6504b1</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="str">
+        <v>507a24da-e50e-4595-9c79-fa8f4f8fa8e3</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
         <v>Name 6</v>
       </c>
-      <c r="E7" t="str">
-        <v>a44a8c97-36e8-4afd-9164-b1180e6634d0</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="str">
+        <v>f523f933-1c48-4adc-8d67-926078e8f51c</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="str">
         <v>Name 7</v>
       </c>
-      <c r="E8" t="str">
-        <v>c5a9f31b-6778-495e-9482-05fd9c8f9404</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="str">
+        <v>b03c4f97-92a7-485b-a019-3d355e7984d6</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="str">
         <v>Name 8</v>
       </c>
-      <c r="E9" t="str">
-        <v>8ca4e540-c068-4b74-b1b7-312e339f1301</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="str">
+        <v>15556372-6d03-4aa0-be5c-0d736f72ffd8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="str">
         <v>Name 9</v>
       </c>
-      <c r="E10" t="str">
-        <v>a46b4180-8885-4c24-b28e-6148306b846f</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="str">
+        <v>b814b430-5393-4e1b-9153-b87dddfd9f60</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="str">
         <v>Name 10</v>
       </c>
-      <c r="E11" t="str">
-        <v>0d267dc7-cd11-4b42-8212-177ad66b3cd0</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="str">
+        <v>98b8f7dd-183b-447b-b345-95675b5f28ec</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="str">
         <v>Name 11</v>
       </c>
-      <c r="E12" t="str">
-        <v>608d127f-d223-4dbc-be70-0b446faf00cb</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="str">
+        <v>9ba8b9df-88a1-4095-b1cf-b41a568c8dc8</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="str">
         <v>Name 12</v>
       </c>
-      <c r="E13" t="str">
-        <v>18d2d599-0cc3-46df-8e1f-f909b912f43f</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="str">
+        <v>ad1d7e97-6019-44da-9c73-403db37cd890</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="str">
         <v>Name 13</v>
       </c>
-      <c r="E14" t="str">
-        <v>6ded90b6-dff1-4b38-a2df-d760212e1dd6</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="str">
+        <v>8d01d4d3-d5bb-4612-8003-82a6b7d12068</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="str">
         <v>Name 14</v>
       </c>
-      <c r="E15" t="str">
-        <v>a4947c42-a59a-48ed-970e-52d189f58f71</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="str">
+        <v>d403a440-3e83-4da1-96a1-da8c23512698</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="str">
         <v>Name 15</v>
       </c>
-      <c r="E16" t="str">
-        <v>52f9cea6-7f4d-4482-9786-24737f1b8a2b</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="str">
+        <v>14dff4be-d79c-4e45-bea0-e13b9d954eb2</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="str">
         <v>Name 16</v>
       </c>
-      <c r="E17" t="str">
-        <v>a4d9c9d7-ef09-42b1-bcff-af6cbdb8e29b</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="str">
+        <v>1f6e6517-59b6-4eb6-ae7d-e677a015521f</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="str">
         <v>Name 17</v>
       </c>
-      <c r="E18" t="str">
-        <v>65cc065a-756b-419f-bee2-82a35d7df3b1</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="str">
+        <v>f7173df4-8d21-43d3-9f6e-6fd3a66dc5f8</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="str">
         <v>Name 18</v>
       </c>
-      <c r="E19" t="str">
-        <v>84f3d8bc-cd34-45c8-89b5-769ac135f990</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="str">
+        <v>633ca597-936b-4ec5-a44b-177bcfd93ac2</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="str">
         <v>Name 19</v>
       </c>
-      <c r="E20" t="str">
-        <v>267600b7-e2e8-42e6-b187-b900575a79bd</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="str">
+        <v>81931c05-bccf-49e4-a55e-40f6d57c36a7</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="str">
         <v>Name 20</v>
       </c>
-      <c r="E21" t="str">
-        <v>8fdc5b3e-ddbc-4670-9b87-642d6f6fc85d</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="str">
+        <v>fb6a2721-3eeb-4172-9b59-6836ea1323f9</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="str">
         <v>Name 21</v>
       </c>
-      <c r="E22" t="str">
-        <v>69462ee5-0370-4ce4-ad2f-9860bb64a199</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="str">
+        <v>614b2d14-cdd0-4feb-b725-11fff17646a2</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="str">
         <v>Name 22</v>
       </c>
-      <c r="E23" t="str">
-        <v>9db32a78-0f7f-4fe0-9be6-3a8b3e9e809a</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="str">
+        <v>ba78120b-2fef-4722-8de6-709826f7df89</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="str">
         <v>Name 23</v>
       </c>
-      <c r="E24" t="str">
-        <v>e7931628-22be-4844-b530-3eeb6b5681f2</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="str">
+        <v>344fe6c2-a58c-4a11-9029-27a9e335810d</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="str">
         <v>Name 24</v>
       </c>
-      <c r="E25" t="str">
-        <v>973d7724-0f7c-4271-ae4c-e47547df2483</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="str">
+        <v>25923420-f85c-46f6-a16f-de54bf54af60</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="str">
         <v>Name 25</v>
       </c>
-      <c r="E26" t="str">
-        <v>42f1d54a-4bdc-465b-b30c-805adc2f6393</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="str">
+        <v>047cf8ed-8025-4db4-8414-a5f7d7a67c88</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="str">
         <v>Name 26</v>
       </c>
-      <c r="E27" t="str">
-        <v>dbf6d327-5567-4da7-86ee-5a4cefba7b22</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="str">
+        <v>0d345103-dbd0-411e-bf12-4e0e171fa4c3</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="str">
         <v>Name 27</v>
       </c>
-      <c r="E28" t="str">
-        <v>cbc94dd7-2617-4cc3-bb45-ceb6e8505423</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="str">
+        <v>1c3ed729-b278-432a-bb3d-7d83a0aa6a71</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="str">
         <v>Name 28</v>
       </c>
-      <c r="E29" t="str">
-        <v>97a4fd53-bd15-409f-91a4-2c58d0c2c5f9</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="str">
+        <v>1c26f9b2-6490-46ab-9559-1fb08edd902c</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="str">
         <v>Name 29</v>
       </c>
-      <c r="E30" t="str">
-        <v>03f55cc0-0d3d-41a2-bdde-f5a48c5d8553</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="str">
+        <v>92d02c03-dce7-437d-877f-2b00a1bfd9dd</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="str">
         <v>Name 30</v>
       </c>
-      <c r="E31" t="str">
-        <v>5b0aa509-18f2-4e50-8514-9899a4acb41e</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="str">
+        <v>71046eb0-1f11-4779-89c6-2e80220942cd</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="str">
         <v>Name 31</v>
       </c>
-      <c r="E32" t="str">
-        <v>ce9803e2-e0c8-49ba-9328-8daf21d2abb3</v>
-      </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="str">
+        <v>7f7d1235-c033-4f30-84d7-89ab25b17fd6</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="str">
         <v>Name 32</v>
       </c>
-      <c r="E33" t="str">
-        <v>64c947b1-502b-49ac-b2cd-6dce5cb6631d</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="str">
+        <v>9746fc38-a26c-41c7-b1aa-a49d99697367</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="str">
         <v>Name 33</v>
       </c>
-      <c r="E34" t="str">
-        <v>81027ce4-db8e-4a61-a850-e9228be4b61d</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="str">
+        <v>877d1f8c-6fa4-4489-b778-6d5df2316a83</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="str">
         <v>Name 34</v>
       </c>
-      <c r="E35" t="str">
-        <v>36a9f759-2ace-4586-881a-83b5aa669e04</v>
-      </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="str">
+        <v>fd981b71-9a57-4d4f-8f65-5199a2245154</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="str">
         <v>Name 35</v>
       </c>
-      <c r="E36" t="str">
-        <v>a31b5d4c-f88e-41e2-9cd1-633987faa97a</v>
-      </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="str">
+        <v>4e7016bc-ae0f-433b-80aa-189dbeeeb4f2</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" t="str">
         <v>Name 36</v>
       </c>
-      <c r="E37" t="str">
-        <v>12248418-6082-4bb7-9408-eec3555e1d52</v>
-      </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="str">
+        <v>fed48ce7-3a3d-4647-9e70-135e5ff94bfb</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="str">
         <v>Name 37</v>
       </c>
-      <c r="E38" t="str">
-        <v>5ad4b249-db09-41bc-b816-be9713ba694b</v>
-      </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="str">
+        <v>a422c6e0-7cb4-4eb5-b1e1-06ed45ea5ef5</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" t="str">
         <v>Name 38</v>
       </c>
-      <c r="E39" t="str">
-        <v>44d6d359-7816-4c2c-800d-6fe0ce817c4f</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="str">
+        <v>1e74d374-6fb9-4a95-b2f6-e02c1529b3ca</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" t="str">
         <v>Name 39</v>
       </c>
-      <c r="E40" t="str">
-        <v>60038615-4ea4-4bc5-b5ea-558ce10ca21e</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" t="str">
+        <v>145e7418-a94c-41db-804d-68d62aa5b364</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" t="str">
         <v>Name 40</v>
       </c>
-      <c r="E41" t="str">
-        <v>417f997e-1c2c-4fb0-9b9e-d72799bf0a68</v>
-      </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="str">
+        <v>6b2ec9cc-4464-40ad-8b6b-1544ba451740</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" t="str">
         <v>Name 41</v>
       </c>
-      <c r="E42" t="str">
-        <v>d7fd8641-ed68-4a69-b1b7-4b9ab7a9a359</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="str">
+        <v>19af749a-04a3-439c-ace7-be351eacc8cf</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="str">
         <v>Name 42</v>
       </c>
-      <c r="E43" t="str">
-        <v>73e4c92e-dc22-4e35-a667-e5a2b38e843b</v>
-      </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" t="str">
+        <v>ebc51da7-c8b2-48d3-8277-48579634db8b</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="str">
         <v>Name 43</v>
       </c>
-      <c r="E44" t="str">
-        <v>816e6b46-a05e-4d83-806d-3f96df4874d5</v>
-      </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="str">
+        <v>39f32844-9116-4b2a-82e1-70c05eb2360e</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" t="str">
         <v>Name 44</v>
       </c>
-      <c r="E45" t="str">
-        <v>369f8878-39da-4769-b273-ece544e09fd5</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" t="str">
+        <v>e81a8322-39f6-4dc6-824d-b203bf5f7563</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" t="str">
         <v>Name 45</v>
       </c>
-      <c r="E46" t="str">
-        <v>f35efab0-1fd9-40aa-be8d-3681a7f395b2</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" t="str">
+        <v>9f0d2454-db54-4ade-91ba-8ff2875076c9</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="str">
         <v>Name 46</v>
       </c>
-      <c r="E47" t="str">
-        <v>a3d0a429-087e-4910-8df3-f3a1b46c80bc</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="str">
+        <v>f1db15c3-e85c-45a4-98f7-b2786d1024b7</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" t="str">
         <v>Name 47</v>
       </c>
-      <c r="E48" t="str">
-        <v>be8a6029-0c35-4f83-97ba-2ac561685f8b</v>
-      </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" t="str">
+        <v>abf8ee9b-0475-4e47-a997-9d28c7586144</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="str">
         <v>Name 48</v>
       </c>
-      <c r="E49" t="str">
-        <v>4dd86139-d5e3-4d74-a20f-061c8b16e769</v>
-      </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="str">
+        <v>f24755ac-b717-496c-92e9-b9549fdc50b1</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" t="str">
         <v>Name 49</v>
       </c>
-      <c r="E50" t="str">
-        <v>65af9d92-4e44-402b-8f9d-ba86e833e47e</v>
-      </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" t="str">
+        <v>9f82b69f-a1f3-4180-aa8d-8d227ee66ac6</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" t="str">
         <v>Name 50</v>
       </c>
-      <c r="E51" t="str">
-        <v>cdee0cbb-0d7b-4b64-9ea0-6cfe71783fc8</v>
-      </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" t="str">
+        <v>a74db293-db40-41cb-9dfa-e1748e1c7d09</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" t="str">
         <v>Name 51</v>
       </c>
-      <c r="E52" t="str">
-        <v>771e2f0a-eee8-4386-969a-bca1a85c4118</v>
-      </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" t="str">
+        <v>2bcc2ac8-13a4-4371-9b8a-7b1e0d0dcee5</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" t="str">
         <v>Name 52</v>
       </c>
-      <c r="E53" t="str">
-        <v>7c84a681-466d-4592-ae3d-6a8657e23616</v>
-      </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" t="str">
+        <v>5ec44e55-8127-477b-9f0f-9f0ec03d0285</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="str">
         <v>Name 53</v>
       </c>
-      <c r="E54" t="str">
-        <v>5a96eab4-ce76-474e-a013-dad66b7a7c33</v>
-      </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="str">
+        <v>df05335d-afec-4b19-8caf-b16ef2b14606</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" t="str">
         <v>Name 54</v>
       </c>
-      <c r="E55" t="str">
-        <v>dc57bdb0-2258-402d-970c-3d9210b89995</v>
-      </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" t="str">
+        <v>f072f316-7f2d-4a02-a277-9b53850fa8a5</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" t="str">
         <v>Name 55</v>
       </c>
-      <c r="E56" t="str">
-        <v>121dc575-ad02-45c6-bcaf-818563e4e66e</v>
-      </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" t="str">
+        <v>5872e521-16e1-4396-8259-0b3c7d63cf0c</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="str">
         <v>Name 56</v>
       </c>
-      <c r="E57" t="str">
-        <v>0d82d539-db22-47ab-993e-ffbe86ba7bd8</v>
-      </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" t="str">
+        <v>52847624-bc8e-4b57-b097-b3b889d8228a</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="str">
         <v>Name 57</v>
       </c>
-      <c r="E58" t="str">
-        <v>80271b69-f8b4-43b5-ba13-3cfb4e15902d</v>
-      </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" t="str">
+        <v>db79d2f1-74ec-4c5b-8bc9-5c89befa6267</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" t="str">
         <v>Name 58</v>
       </c>
-      <c r="E59" t="str">
-        <v>fca295e9-ff0f-4fb4-b004-9c603be34942</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="str">
+        <v>2f9685ba-e58e-48d7-8e67-85cb0b4f5e6b</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" t="str">
         <v>Name 59</v>
       </c>
-      <c r="E60" t="str">
-        <v>b337664e-b2c8-4d3e-aadd-7ee4faa2736f</v>
-      </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" t="str">
+        <v>e2d17934-3137-4b12-8a46-d4761254ba4d</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" t="str">
         <v>Name 60</v>
       </c>
-      <c r="E61" t="str">
-        <v>4167fc00-fbbe-4702-9397-7a48acc25ac0</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" t="str">
+        <v>f27f99db-86de-4849-abe5-a55e6810a83d</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="str">
         <v>Name 61</v>
       </c>
-      <c r="E62" t="str">
-        <v>1e15eba5-f127-4aff-aaf1-3a1b78a2d498</v>
-      </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="str">
+        <v>387c4caa-de6b-4896-b2bc-20ffc0e110b3</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" t="str">
         <v>Name 62</v>
       </c>
-      <c r="E63" t="str">
-        <v>1a9d2b5f-b990-4533-9918-7c64070c358d</v>
-      </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="str">
+        <v>31a1d02b-e9d3-434c-a103-483ba7e3c23c</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64" t="str">
         <v>Name 63</v>
       </c>
-      <c r="E64" t="str">
-        <v>b2a8035c-6bd7-4f98-92be-406ad09520cf</v>
-      </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" t="str">
+        <v>872fbc80-d207-4e12-b97d-4feddc4ce4ec</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D65" t="str">
-        <v>Name 64</v>
-      </c>
-      <c r="E65" t="str">
-        <v>5866b71a-1f4c-4e07-ac71-41b26bbf0395</v>
+        <v>John</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" t="str">
+        <v>995c8789-c6fb-4fa3-a065-056095616a9a</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66" t="str">
         <v>Name 65</v>
       </c>
-      <c r="E66" t="str">
-        <v>0a9e31a8-a383-4fe5-90ea-90fd763439f9</v>
-      </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" t="str">
+        <v>0d731724-e31a-4d23-9dc2-91e883dad6f5</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" t="str">
         <v>Name 66</v>
       </c>
-      <c r="E67" t="str">
-        <v>b0947710-2f42-4288-ac6d-11e737c77a65</v>
-      </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" t="str">
+        <v>147ce0be-ff17-42d1-b188-47f2093ac170</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D68" t="str">
         <v>Name 67</v>
       </c>
-      <c r="E68" t="str">
-        <v>a5179f47-7cd0-4a7a-befd-49af3bfff7bf</v>
-      </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" t="str">
+        <v>2e8d89e4-fd8f-4140-9e07-b66595ba69de</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D69" t="str">
         <v>Name 68</v>
       </c>
-      <c r="E69" t="str">
-        <v>bc22a7d1-7a57-402c-b309-4671ccc7a2b1</v>
-      </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" t="str">
+        <v>fbc604a9-dac6-4f4d-a889-a3a778ef16b2</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D70" t="str">
         <v>Name 69</v>
       </c>
-      <c r="E70" t="str">
-        <v>5a713c80-318f-491a-a48c-e12327d8de07</v>
-      </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="str">
+        <v>dc99dc64-5c50-4975-9b93-125ffa60786c</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" t="str">
         <v>Name 70</v>
       </c>
-      <c r="E71" t="str">
-        <v>3fa68e1c-d8b7-473f-87b5-18fb6b736aca</v>
-      </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" t="str">
+        <v>edc7f73b-e5bd-4dcd-9055-cb90e2729298</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D72" t="str">
         <v>Name 71</v>
       </c>
-      <c r="E72" t="str">
-        <v>9ec264ae-f0d7-4515-9f6f-aceb96f3d27a</v>
-      </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" t="str">
+        <v>c829ae74-ad3f-41e1-8ddf-fd559387b702</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D73" t="str">
         <v>Name 72</v>
       </c>
-      <c r="E73" t="str">
-        <v>bf18d347-a5d2-463f-b8fe-7373b34227ce</v>
-      </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" t="str">
+        <v>0ac037f8-e29c-4307-8e6e-7865610bb3ec</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D74" t="str">
         <v>Name 73</v>
       </c>
-      <c r="E74" t="str">
-        <v>8e56f0ee-fd9c-4700-a775-8e76cf49229d</v>
-      </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="str">
+        <v>85f2b565-dded-456c-8c97-1b179b6f7117</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" t="str">
         <v>Name 74</v>
       </c>
-      <c r="E75" t="str">
-        <v>f3372bc8-38bd-41df-8730-9732ad452023</v>
-      </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="str">
+        <v>ef93d826-efe9-4dd3-a3a4-596b12834c1a</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D76" t="str">
         <v>Name 75</v>
       </c>
-      <c r="E76" t="str">
-        <v>abf4b800-ae81-4595-8a1d-c662f6412453</v>
-      </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="str">
+        <v>6380c23d-a8d1-4e4c-8a0b-9db4a66092e8</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D77" t="str">
         <v>Name 76</v>
       </c>
-      <c r="E77" t="str">
-        <v>a21b0e98-0958-4139-b32e-de42c8831b6d</v>
-      </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="str">
+        <v>8ad8f1a0-2e1d-4899-ac77-5d2e5d1ef88c</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D78" t="str">
         <v>Name 77</v>
       </c>
-      <c r="E78" t="str">
-        <v>95db3815-304a-46ed-8410-9d31b56ecc33</v>
-      </c>
     </row>
     <row r="79">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="str">
+        <v>ab934361-e5d2-4728-b4d6-ba1f5aeb6418</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D79" t="str">
         <v>Name 78</v>
       </c>
-      <c r="E79" t="str">
-        <v>d5604cb3-13a4-4dce-9565-67290cb4bcae</v>
-      </c>
     </row>
     <row r="80">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" t="str">
+        <v>13199ee0-e15f-4cde-84ac-9dd2746fad97</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D80" t="str">
         <v>Name 79</v>
       </c>
-      <c r="E80" t="str">
-        <v>4b6e030f-f781-4371-93f8-e1a2249f81c4</v>
-      </c>
     </row>
     <row r="81">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" t="str">
+        <v>91735ef9-65e3-440a-836f-6f469b37e5a0</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D81" t="str">
         <v>Name 80</v>
       </c>
-      <c r="E81" t="str">
-        <v>3fcce84a-672a-478a-8826-1136e4b5c2b1</v>
-      </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" t="str">
+        <v>c86f0e69-8dd8-4f02-8b53-c1c71e1ecfd5</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D82" t="str">
         <v>Name 81</v>
       </c>
-      <c r="E82" t="str">
-        <v>0eba97dd-1863-44dc-a4a0-08fec8f04be3</v>
-      </c>
     </row>
     <row r="83">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" t="str">
+        <v>7621cecf-c8b3-4228-b4aa-cdb76815b0a1</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D83" t="str">
         <v>Name 82</v>
       </c>
-      <c r="E83" t="str">
-        <v>b3437cb4-29ed-4e9c-827d-24b11e2a49f1</v>
-      </c>
     </row>
     <row r="84">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" t="str">
+        <v>9ea27e75-acfd-4c3d-9191-f78814f9e4fa</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84" t="str">
         <v>Name 83</v>
       </c>
-      <c r="E84" t="str">
-        <v>36bec050-13cb-49d9-abe5-3b157a9b0755</v>
-      </c>
     </row>
     <row r="85">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" t="str">
+        <v>54c6038a-0cb1-4572-87a9-6e3c2c65f6a8</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D85" t="str">
         <v>Name 84</v>
       </c>
-      <c r="E85" t="str">
-        <v>93d287af-d0a9-4fa1-bc8d-d26f1c4369f6</v>
-      </c>
     </row>
     <row r="86">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" t="str">
+        <v>0d3ecf07-279c-4055-bf07-b436e2672d88</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D86" t="str">
         <v>Name 85</v>
       </c>
-      <c r="E86" t="str">
-        <v>73aaaadb-f838-4ac6-bb87-e4d114018351</v>
-      </c>
     </row>
     <row r="87">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" t="str">
+        <v>abdb139a-4744-4a87-943d-2d6b6d9bcf99</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" t="str">
         <v>Name 86</v>
       </c>
-      <c r="E87" t="str">
-        <v>a83a162f-6b29-41ae-a5da-56803f0457d5</v>
-      </c>
     </row>
     <row r="88">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" t="str">
+        <v>8e1b50e8-fa8e-4d9c-8391-6721131c5275</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D88" t="str">
         <v>Name 87</v>
       </c>
-      <c r="E88" t="str">
-        <v>9274c7df-90f8-4a06-9eb0-d253fb747e09</v>
-      </c>
     </row>
     <row r="89">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" t="str">
+        <v>cde1178b-c7e0-4051-aa59-a33a1758314e</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D89" t="str">
         <v>Name 88</v>
       </c>
-      <c r="E89" t="str">
-        <v>f4a2faff-61d9-4137-acca-cd46cc97b85d</v>
-      </c>
     </row>
     <row r="90">
-      <c r="A90">
-        <v>89</v>
+      <c r="A90" t="str">
+        <v>3ff983bd-3844-4e37-b6af-c8d3471565e6</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D90" t="str">
         <v>Name 89</v>
       </c>
-      <c r="E90" t="str">
-        <v>f2781b37-1801-4c4b-bd79-fd0416dc2d36</v>
-      </c>
     </row>
     <row r="91">
-      <c r="A91">
-        <v>90</v>
+      <c r="A91" t="str">
+        <v>7a896e5f-49e1-46b0-be09-84da83ab95d7</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D91" t="str">
         <v>Name 90</v>
       </c>
-      <c r="E91" t="str">
-        <v>bb86a03c-90db-4623-b7f9-ab5e3491f86b</v>
-      </c>
     </row>
     <row r="92">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" t="str">
+        <v>1c856dcf-dc5a-4da7-a96e-91f8999cb090</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D92" t="str">
         <v>Name 91</v>
       </c>
-      <c r="E92" t="str">
-        <v>da8971ba-fd46-4f93-98bc-05c309b04fcc</v>
-      </c>
     </row>
     <row r="93">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" t="str">
+        <v>ee1a6dcd-f62b-417f-af14-05575cac02be</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" t="str">
         <v>Name 92</v>
       </c>
-      <c r="E93" t="str">
-        <v>dcdb78b9-beae-40ed-be8d-cd2e8ad8a42b</v>
-      </c>
     </row>
     <row r="94">
-      <c r="A94">
-        <v>93</v>
+      <c r="A94" t="str">
+        <v>f00e2a4b-d0ed-4fdc-a248-6ae083901f7e</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D94" t="str">
         <v>Name 93</v>
       </c>
-      <c r="E94" t="str">
-        <v>e37f3e43-6a02-433f-b8cf-b89413a7153c</v>
-      </c>
     </row>
     <row r="95">
-      <c r="A95">
-        <v>94</v>
+      <c r="A95" t="str">
+        <v>10253966-5836-4363-93a0-0433ec06fb3a</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" t="str">
         <v>Name 94</v>
       </c>
-      <c r="E95" t="str">
-        <v>8cf7e70e-33f5-49a7-a81d-8fe76648cc1a</v>
-      </c>
     </row>
     <row r="96">
-      <c r="A96">
-        <v>95</v>
+      <c r="A96" t="str">
+        <v>e0820434-5029-4fc4-b605-0be764dd743a</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D96" t="str">
         <v>Name 95</v>
       </c>
-      <c r="E96" t="str">
-        <v>01d4cef0-990d-488d-a492-f6adeb1bc1b6</v>
-      </c>
     </row>
     <row r="97">
-      <c r="A97">
-        <v>96</v>
+      <c r="A97" t="str">
+        <v>ce786de6-3090-4bac-a432-b7b904f3b48f</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D97" t="str">
         <v>Name 96</v>
       </c>
-      <c r="E97" t="str">
-        <v>a9907a89-6399-414f-8efd-6e931c7f7aa7</v>
-      </c>
     </row>
     <row r="98">
-      <c r="A98">
-        <v>97</v>
+      <c r="A98" t="str">
+        <v>181b3d77-9a3e-4313-9a10-4619639f7a4d</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D98" t="str">
         <v>Name 97</v>
       </c>
-      <c r="E98" t="str">
-        <v>9cb69908-d4c0-4c0b-94c3-80a83f9c0b40</v>
-      </c>
     </row>
     <row r="99">
-      <c r="A99">
-        <v>98</v>
+      <c r="A99" t="str">
+        <v>dfd0c050-b03d-4d91-a903-845215553586</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D99" t="str">
         <v>Name 98</v>
       </c>
-      <c r="E99" t="str">
-        <v>76520427-ae8f-49ca-ae14-274b68db38b9</v>
-      </c>
     </row>
     <row r="100">
-      <c r="A100">
-        <v>99</v>
+      <c r="A100" t="str">
+        <v>b1a79123-da1e-45cc-9f38-1ab9e3c17866</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" t="str">
         <v>Name 99</v>
       </c>
-      <c r="E100" t="str">
-        <v>a55d1e85-b795-43f9-8e3f-f189f0459d46</v>
-      </c>
     </row>
     <row r="101">
-      <c r="A101">
-        <v>100</v>
+      <c r="A101" t="str">
+        <v>a2461d94-0dbf-4051-ae73-7f900509ac57</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D101" t="str">
         <v>Name 100</v>
       </c>
-      <c r="E101" t="str">
-        <v>2c24b4cd-c250-4b22-a68d-6e3455d02a3d</v>
-      </c>
     </row>
     <row r="102">
-      <c r="A102">
-        <v>101</v>
+      <c r="A102" t="str">
+        <v>217b404a-51d3-430d-81de-8ebc50839872</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D102" t="str">
         <v>Name 101</v>
       </c>
-      <c r="E102" t="str">
-        <v>35572164-6a3d-432f-a249-78d82c523827</v>
-      </c>
     </row>
     <row r="103">
-      <c r="A103">
-        <v>102</v>
+      <c r="A103" t="str">
+        <v>a594825e-4e9e-4034-955a-b273efccaee0</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D103" t="str">
         <v>Name 102</v>
       </c>
-      <c r="E103" t="str">
-        <v>0c90b4d3-c123-4e70-a322-e5a9f02f58fe</v>
-      </c>
     </row>
     <row r="104">
-      <c r="A104">
-        <v>103</v>
+      <c r="A104" t="str">
+        <v>01b750c1-ed01-4c6c-b7be-ebb455888da4</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D104" t="str">
         <v>Name 103</v>
       </c>
-      <c r="E104" t="str">
-        <v>a3b0a8ff-8a89-4d21-b3e5-e670f57e143f</v>
-      </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <v>104</v>
+      <c r="A105" t="str">
+        <v>ef0aa6f9-4a7b-4170-b14e-88474049ab47</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D105" t="str">
         <v>Name 104</v>
       </c>
-      <c r="E105" t="str">
-        <v>ffcb4607-6715-446f-81d5-7a498a016f72</v>
-      </c>
     </row>
     <row r="106">
-      <c r="A106">
-        <v>105</v>
+      <c r="A106" t="str">
+        <v>4b7073c6-ff15-4421-8045-8bd8f00747a0</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D106" t="str">
         <v>Name 105</v>
       </c>
-      <c r="E106" t="str">
-        <v>bd6602d7-49e0-44ce-b7fd-7db6abf9c4f3</v>
-      </c>
     </row>
     <row r="107">
-      <c r="A107">
-        <v>106</v>
+      <c r="A107" t="str">
+        <v>3bc6ce92-f9ff-405d-a500-ee6e6547ac38</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D107" t="str">
         <v>Name 106</v>
       </c>
-      <c r="E107" t="str">
-        <v>d6559a6c-dd69-4c1f-bb55-dadf2c71d8ef</v>
-      </c>
     </row>
     <row r="108">
-      <c r="A108">
-        <v>107</v>
+      <c r="A108" t="str">
+        <v>bbff4395-47ce-4bc4-8050-5f6381dcc372</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D108" t="str">
         <v>Name 107</v>
       </c>
-      <c r="E108" t="str">
-        <v>609ea949-ceed-4904-b85f-53cfd9b5f5d9</v>
-      </c>
     </row>
     <row r="109">
-      <c r="A109">
-        <v>108</v>
+      <c r="A109" t="str">
+        <v>2388b767-19ea-4c0a-951b-ae25aaffcd80</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D109" t="str">
         <v>Name 108</v>
       </c>
-      <c r="E109" t="str">
-        <v>bed3deb9-be91-41e7-ba00-b999b705108a</v>
-      </c>
     </row>
     <row r="110">
-      <c r="A110">
-        <v>109</v>
+      <c r="A110" t="str">
+        <v>83b43647-caaa-4206-b1eb-464832aebba3</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D110" t="str">
         <v>Name 109</v>
       </c>
-      <c r="E110" t="str">
-        <v>c7664490-0f1f-4903-adbd-b1f3eadeb80f</v>
-      </c>
     </row>
     <row r="111">
-      <c r="A111">
-        <v>110</v>
+      <c r="A111" t="str">
+        <v>8431d996-ba98-47ae-8441-cc09503f39d2</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D111" t="str">
         <v>Name 110</v>
       </c>
-      <c r="E111" t="str">
-        <v>ab13458e-deaa-44f2-a6bd-53797db7152b</v>
-      </c>
     </row>
     <row r="112">
-      <c r="A112">
-        <v>111</v>
+      <c r="A112" t="str">
+        <v>4802d997-d35b-4ba3-921e-e3f4cbcb1bc6</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D112" t="str">
         <v>Name 111</v>
       </c>
-      <c r="E112" t="str">
-        <v>69db2589-87ed-49b2-9545-ffefebdf3f21</v>
-      </c>
     </row>
     <row r="113">
-      <c r="A113">
-        <v>112</v>
+      <c r="A113" t="str">
+        <v>b373ded8-bfe8-49c8-b1d9-386fc51d8a35</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D113" t="str">
         <v>Name 112</v>
       </c>
-      <c r="E113" t="str">
-        <v>3840fd7c-0e96-477f-bd2e-2323ddb178be</v>
-      </c>
     </row>
     <row r="114">
-      <c r="A114">
-        <v>113</v>
+      <c r="A114" t="str">
+        <v>bcb6bd16-d551-4422-ac55-9357b5f06f07</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D114" t="str">
         <v>Name 113</v>
       </c>
-      <c r="E114" t="str">
-        <v>a8b5f7bf-fefa-45a3-a715-e3042af36519</v>
-      </c>
     </row>
     <row r="115">
-      <c r="A115">
-        <v>114</v>
+      <c r="A115" t="str">
+        <v>aed91a2b-e3d2-47db-bcaa-4b21aaebc430</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D115" t="str">
         <v>Name 114</v>
       </c>
-      <c r="E115" t="str">
-        <v>a54c4e4d-5360-4641-81f0-fd6a39f1366d</v>
-      </c>
     </row>
     <row r="116">
-      <c r="A116">
-        <v>115</v>
+      <c r="A116" t="str">
+        <v>9e239464-ae94-4e27-95b2-121fa12ba18b</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D116" t="str">
         <v>Name 115</v>
       </c>
-      <c r="E116" t="str">
-        <v>49645873-324c-4433-9819-cd8c59fa6794</v>
-      </c>
     </row>
     <row r="117">
-      <c r="A117">
-        <v>116</v>
+      <c r="A117" t="str">
+        <v>75440a97-bf9e-42d9-a424-7e4872a4fac0</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D117" t="str">
         <v>Name 116</v>
       </c>
-      <c r="E117" t="str">
-        <v>ccd49efa-6c23-49cf-b44d-19e4946d82eb</v>
-      </c>
     </row>
     <row r="118">
-      <c r="A118">
-        <v>117</v>
+      <c r="A118" t="str">
+        <v>cac48397-b0fe-4df9-ae50-2ce956c5cd9e</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D118" t="str">
         <v>Name 117</v>
       </c>
-      <c r="E118" t="str">
-        <v>9e2b8760-b650-4e11-86c2-ea282912f518</v>
-      </c>
     </row>
     <row r="119">
-      <c r="A119">
-        <v>118</v>
+      <c r="A119" t="str">
+        <v>eaaf9f97-79f2-4779-a1f1-e13f78336e16</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D119" t="str">
         <v>Name 118</v>
       </c>
-      <c r="E119" t="str">
-        <v>52177944-d007-4c5f-8f4e-fabb53f7cc68</v>
-      </c>
     </row>
     <row r="120">
-      <c r="A120">
-        <v>119</v>
+      <c r="A120" t="str">
+        <v>e64fcf56-1121-427f-893b-cd323312e94a</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D120" t="str">
         <v>Name 119</v>
       </c>
-      <c r="E120" t="str">
-        <v>92b41fa3-c85c-4a81-ac8b-20efbdca1ec3</v>
-      </c>
     </row>
     <row r="121">
-      <c r="A121">
-        <v>120</v>
+      <c r="A121" t="str">
+        <v>5ea04e1a-54f3-4083-b58b-96de331b7583</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D121" t="str">
         <v>Name 120</v>
       </c>
-      <c r="E121" t="str">
-        <v>952023bb-b841-4675-a18b-7b9f1e4382e2</v>
-      </c>
     </row>
     <row r="122">
-      <c r="A122">
-        <v>121</v>
+      <c r="A122" t="str">
+        <v>8670b1ca-4c90-47a0-bf66-1c3489dee330</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D122" t="str">
         <v>Name 121</v>
       </c>
-      <c r="E122" t="str">
-        <v>fce3869e-33a5-4678-82ca-fb1760f88178</v>
-      </c>
     </row>
     <row r="123">
-      <c r="A123">
-        <v>122</v>
+      <c r="A123" t="str">
+        <v>569e3d2c-ca78-4c37-9cbd-b5be528c2c42</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D123" t="str">
         <v>Name 122</v>
       </c>
-      <c r="E123" t="str">
-        <v>52752a18-5c31-4655-8742-3d87bb675874</v>
-      </c>
     </row>
     <row r="124">
-      <c r="A124">
-        <v>123</v>
+      <c r="A124" t="str">
+        <v>0b3631ce-a9f6-4721-a3c3-1eb3498c79df</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D124" t="str">
         <v>Name 123</v>
       </c>
-      <c r="E124" t="str">
-        <v>0afbefe7-3f43-4146-be82-c06e4a495b38</v>
-      </c>
     </row>
     <row r="125">
-      <c r="A125">
-        <v>124</v>
+      <c r="A125" t="str">
+        <v>8d652351-73a4-4e75-81d6-0c4439dead08</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D125" t="str">
         <v>Name 124</v>
       </c>
-      <c r="E125" t="str">
-        <v>94b87cce-6bbd-49b3-aa50-04caf4b29e61</v>
-      </c>
     </row>
     <row r="126">
-      <c r="A126">
-        <v>125</v>
+      <c r="A126" t="str">
+        <v>a3fab8e5-e4e6-470c-8225-d1c3bccbb681</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D126" t="str">
         <v>Name 125</v>
       </c>
-      <c r="E126" t="str">
-        <v>35cd34d1-f163-4fb7-a57f-1c16bdd7775e</v>
-      </c>
     </row>
     <row r="127">
-      <c r="A127">
-        <v>126</v>
+      <c r="A127" t="str">
+        <v>513619bb-bf78-4289-bddf-45d08cbefb2f</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D127" t="str">
         <v>Name 126</v>
       </c>
-      <c r="E127" t="str">
-        <v>8a11d0ed-f523-42f7-a0f1-4fee00c89753</v>
-      </c>
     </row>
     <row r="128">
-      <c r="A128">
-        <v>127</v>
+      <c r="A128" t="str">
+        <v>6a8ff8d4-8b47-48f8-8011-a3ba458e18c5</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D128" t="str">
         <v>Name 127</v>
       </c>
-      <c r="E128" t="str">
-        <v>d1393c0c-1177-43f6-8392-8c3e94967642</v>
-      </c>
     </row>
     <row r="129">
-      <c r="A129">
-        <v>128</v>
+      <c r="A129" t="str">
+        <v>303e5ba3-6d41-42a4-aafb-d87918f2dcd3</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D129" t="str">
         <v>Name 128</v>
       </c>
-      <c r="E129" t="str">
-        <v>39f7a6ff-d5f2-499e-893c-95aa658150d2</v>
-      </c>
     </row>
     <row r="130">
-      <c r="A130">
-        <v>129</v>
+      <c r="A130" t="str">
+        <v>0f801b2b-cd09-4360-b4c2-f18f61b01c36</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D130" t="str">
         <v>Name 129</v>
       </c>
-      <c r="E130" t="str">
-        <v>945d96a3-daa8-4ec3-b446-958c9f3e86f1</v>
-      </c>
     </row>
     <row r="131">
-      <c r="A131">
-        <v>130</v>
+      <c r="A131" t="str">
+        <v>679faf3c-11b3-4f31-97a3-80915b63569f</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D131" t="str">
         <v>Name 130</v>
       </c>
-      <c r="E131" t="str">
-        <v>7bcece06-12b2-464f-9e26-02b463101ea7</v>
-      </c>
     </row>
     <row r="132">
-      <c r="A132">
-        <v>131</v>
+      <c r="A132" t="str">
+        <v>4e1251cd-ec64-4c11-9209-cf535f36f696</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D132" t="str">
         <v>Name 131</v>
       </c>
-      <c r="E132" t="str">
-        <v>f3fb554c-3a1c-4344-8530-89c54147df6f</v>
-      </c>
     </row>
     <row r="133">
-      <c r="A133">
-        <v>132</v>
+      <c r="A133" t="str">
+        <v>d1078f31-785f-4044-afd2-4f6f164ec860</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D133" t="str">
         <v>Name 132</v>
       </c>
-      <c r="E133" t="str">
-        <v>4c4e9c18-064e-48ae-89ae-b8bdcbefb14d</v>
-      </c>
     </row>
     <row r="134">
-      <c r="A134">
-        <v>133</v>
+      <c r="A134" t="str">
+        <v>404a16d6-0505-4cc1-91da-4982fde6e890</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D134" t="str">
         <v>Name 133</v>
       </c>
-      <c r="E134" t="str">
-        <v>6279d9b0-c07d-492f-883b-1088000527d7</v>
-      </c>
     </row>
     <row r="135">
-      <c r="A135">
-        <v>134</v>
+      <c r="A135" t="str">
+        <v>646a2295-4670-42f1-bcf2-9ef66e136730</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D135" t="str">
         <v>Name 134</v>
       </c>
-      <c r="E135" t="str">
-        <v>dcbd4ed0-4311-4f10-9b42-c752044c5c88</v>
-      </c>
     </row>
     <row r="136">
-      <c r="A136">
-        <v>135</v>
+      <c r="A136" t="str">
+        <v>de2ab1d1-e087-4d2e-bc75-b1b0ab020eef</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D136" t="str">
         <v>Name 135</v>
       </c>
-      <c r="E136" t="str">
-        <v>a51b20f0-d0a5-45d0-b5ea-5067429975b2</v>
-      </c>
     </row>
     <row r="137">
-      <c r="A137">
-        <v>136</v>
+      <c r="A137" t="str">
+        <v>629a34dc-2d72-43ef-a397-ad4bcb22c352</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D137" t="str">
         <v>Name 136</v>
       </c>
-      <c r="E137" t="str">
-        <v>9c369675-6b87-44bd-8e0e-47ee9ef28df2</v>
-      </c>
     </row>
     <row r="138">
-      <c r="A138">
-        <v>137</v>
+      <c r="A138" t="str">
+        <v>3e54ba71-0da7-466a-bcdc-23ab0f08b33f</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D138" t="str">
         <v>Name 137</v>
       </c>
-      <c r="E138" t="str">
-        <v>0bf28f58-2355-4736-8990-9f26c173eddc</v>
-      </c>
     </row>
     <row r="139">
-      <c r="A139">
-        <v>138</v>
+      <c r="A139" t="str">
+        <v>7c45025d-1a24-4d74-b919-6820d4a0d8bb</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D139" t="str">
         <v>Name 138</v>
       </c>
-      <c r="E139" t="str">
-        <v>3bcb1817-b863-423c-a95a-301e52f0b17a</v>
-      </c>
     </row>
     <row r="140">
-      <c r="A140">
-        <v>139</v>
+      <c r="A140" t="str">
+        <v>847759a4-0d69-4694-9b1d-9f0897db1a4d</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D140" t="str">
         <v>Name 139</v>
       </c>
-      <c r="E140" t="str">
-        <v>3bd9d3b0-98ad-4b63-8b04-32cd9535e94b</v>
-      </c>
     </row>
     <row r="141">
-      <c r="A141">
-        <v>140</v>
+      <c r="A141" t="str">
+        <v>72f72652-3f69-4cc4-bf7b-abfd1974b723</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D141" t="str">
         <v>Name 140</v>
       </c>
-      <c r="E141" t="str">
-        <v>fc5d3bcb-317d-4cc4-918c-86ec889f9647</v>
-      </c>
     </row>
     <row r="142">
-      <c r="A142">
-        <v>141</v>
+      <c r="A142" t="str">
+        <v>1ae461eb-c74a-474b-81de-cd2059842313</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D142" t="str">
         <v>Name 141</v>
       </c>
-      <c r="E142" t="str">
-        <v>0f97b115-b755-408c-b3a0-f79de9650561</v>
-      </c>
     </row>
     <row r="143">
-      <c r="A143">
-        <v>142</v>
+      <c r="A143" t="str">
+        <v>e6218ffc-a3d6-468d-9638-7f7d0e148c67</v>
       </c>
       <c r="B143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D143" t="str">
         <v>Name 142</v>
       </c>
-      <c r="E143" t="str">
-        <v>0d2f2da2-ce5b-4e54-ac66-9ca1be796b2c</v>
-      </c>
     </row>
     <row r="144">
-      <c r="A144">
-        <v>143</v>
+      <c r="A144" t="str">
+        <v>a5d925eb-af11-43dc-94b2-133873826219</v>
       </c>
       <c r="B144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D144" t="str">
         <v>Name 143</v>
       </c>
-      <c r="E144" t="str">
-        <v>4f39c395-8a83-446c-9e7b-0b0b8d936cde</v>
-      </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <v>144</v>
+      <c r="A145" t="str">
+        <v>00e7af49-8e24-4e6d-b7e6-3a59ffb7e7c9</v>
       </c>
       <c r="B145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D145" t="str">
         <v>Name 144</v>
       </c>
-      <c r="E145" t="str">
-        <v>027621f4-1548-401c-9071-d1538e6dae3c</v>
-      </c>
     </row>
     <row r="146">
-      <c r="A146">
-        <v>145</v>
+      <c r="A146" t="str">
+        <v>79fdce0c-11be-4f1c-a7e5-717b6462f331</v>
       </c>
       <c r="B146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D146" t="str">
         <v>Name 145</v>
       </c>
-      <c r="E146" t="str">
-        <v>eae211b3-a8a9-4325-805f-26b7c70c901e</v>
-      </c>
     </row>
     <row r="147">
-      <c r="A147">
-        <v>146</v>
+      <c r="A147" t="str">
+        <v>34c9b79f-37b5-48c0-907e-65b2520a4732</v>
       </c>
       <c r="B147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" t="str">
         <v>Name 146</v>
       </c>
-      <c r="E147" t="str">
-        <v>26fa2cea-4b69-40b1-9fd5-19fd93d74ac9</v>
-      </c>
     </row>
     <row r="148">
-      <c r="A148">
-        <v>147</v>
+      <c r="A148" t="str">
+        <v>27640c0c-f108-4770-86b6-9868f2188294</v>
       </c>
       <c r="B148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D148" t="str">
         <v>Name 147</v>
       </c>
-      <c r="E148" t="str">
-        <v>c1e73d94-2dea-4f8a-a391-e6180dbc9518</v>
-      </c>
     </row>
     <row r="149">
-      <c r="A149">
-        <v>148</v>
+      <c r="A149" t="str">
+        <v>fdb421dd-fb76-40cd-9b5b-e7fa721d487c</v>
       </c>
       <c r="B149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D149" t="str">
         <v>Name 148</v>
       </c>
-      <c r="E149" t="str">
-        <v>5c058b9c-0c12-4949-b64f-fef024e091d0</v>
-      </c>
     </row>
     <row r="150">
-      <c r="A150">
-        <v>149</v>
+      <c r="A150" t="str">
+        <v>781106b3-54fa-4016-9df0-b9176d6e131c</v>
       </c>
       <c r="B150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D150" t="str">
         <v>Name 149</v>
       </c>
-      <c r="E150" t="str">
-        <v>536b5c52-3ec9-4836-8586-d286c595126f</v>
-      </c>
     </row>
     <row r="151">
-      <c r="A151">
-        <v>150</v>
+      <c r="A151" t="str">
+        <v>7fe036d4-49a4-4122-81c8-2c8560c80d91</v>
       </c>
       <c r="B151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D151" t="str">
         <v>Name 150</v>
       </c>
-      <c r="E151" t="str">
-        <v>81d1ea92-f398-4915-8237-d0a002b0022e</v>
-      </c>
     </row>
     <row r="152">
-      <c r="A152">
-        <v>151</v>
+      <c r="A152" t="str">
+        <v>f31501d1-a39d-4e7a-9208-c29303326027</v>
       </c>
       <c r="B152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D152" t="str">
         <v>Name 151</v>
       </c>
-      <c r="E152" t="str">
-        <v>fb701531-77c3-4a07-b49e-85cda09f8f14</v>
-      </c>
     </row>
     <row r="153">
-      <c r="A153">
-        <v>152</v>
+      <c r="A153" t="str">
+        <v>02511719-4586-4c33-95fd-ef698334cfd5</v>
       </c>
       <c r="B153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D153" t="str">
         <v>Name 152</v>
       </c>
-      <c r="E153" t="str">
-        <v>47fb7d07-1fd4-4997-9c48-94e01d24c31d</v>
-      </c>
     </row>
     <row r="154">
-      <c r="A154">
-        <v>153</v>
+      <c r="A154" t="str">
+        <v>de9a065b-81ff-4405-a414-fe8afe022c5c</v>
       </c>
       <c r="B154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D154" t="str">
         <v>Name 153</v>
       </c>
-      <c r="E154" t="str">
-        <v>1bf78982-74c8-4629-8d5f-0987f06e31bc</v>
-      </c>
     </row>
     <row r="155">
-      <c r="A155">
-        <v>154</v>
+      <c r="A155" t="str">
+        <v>95eca125-4974-4a3c-9149-468015591cba</v>
       </c>
       <c r="B155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D155" t="str">
         <v>Name 154</v>
       </c>
-      <c r="E155" t="str">
-        <v>e0c2ff42-a1e3-4b65-aba5-df7b8455058b</v>
-      </c>
     </row>
     <row r="156">
-      <c r="A156">
-        <v>155</v>
+      <c r="A156" t="str">
+        <v>2ccd2c06-e323-4423-92f7-59b7ffafdd4f</v>
       </c>
       <c r="B156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D156" t="str">
         <v>Name 155</v>
       </c>
-      <c r="E156" t="str">
-        <v>dffbd9cb-d4e3-45ee-888b-3827ae53dd66</v>
-      </c>
     </row>
     <row r="157">
-      <c r="A157">
-        <v>156</v>
+      <c r="A157" t="str">
+        <v>d18b836f-a07d-4984-82c7-a209f315eccf</v>
       </c>
       <c r="B157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D157" t="str">
         <v>Name 156</v>
       </c>
-      <c r="E157" t="str">
-        <v>bed21415-bbcf-48ed-8ad6-e52a6b99f257</v>
-      </c>
     </row>
     <row r="158">
-      <c r="A158">
-        <v>157</v>
+      <c r="A158" t="str">
+        <v>96eb6a6a-2c00-4118-9b12-9778f685f3a3</v>
       </c>
       <c r="B158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D158" t="str">
         <v>Name 157</v>
       </c>
-      <c r="E158" t="str">
-        <v>0098b025-e158-428b-94ad-9d4cac059476</v>
-      </c>
     </row>
     <row r="159">
-      <c r="A159">
-        <v>158</v>
+      <c r="A159" t="str">
+        <v>1833022d-0559-441c-9bb8-7e69a72f5141</v>
       </c>
       <c r="B159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D159" t="str">
         <v>Name 158</v>
       </c>
-      <c r="E159" t="str">
-        <v>76f2e547-db7f-42b7-b9b6-53757e91b905</v>
-      </c>
     </row>
     <row r="160">
-      <c r="A160">
-        <v>159</v>
+      <c r="A160" t="str">
+        <v>af475ac1-27a7-41dc-88e7-beb015dc7b0e</v>
       </c>
       <c r="B160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D160" t="str">
         <v>Name 159</v>
       </c>
-      <c r="E160" t="str">
-        <v>8a571095-42f6-438a-91ad-57f99c65db03</v>
-      </c>
     </row>
     <row r="161">
-      <c r="A161">
-        <v>160</v>
+      <c r="A161" t="str">
+        <v>32148641-760d-437b-81f0-4fa9706d0b43</v>
       </c>
       <c r="B161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" t="str">
         <v>Name 160</v>
       </c>
-      <c r="E161" t="str">
-        <v>cde992a6-415a-43f2-95de-56a90990921f</v>
-      </c>
     </row>
     <row r="162">
-      <c r="A162">
-        <v>161</v>
+      <c r="A162" t="str">
+        <v>aad5b023-8213-4190-968b-b83284df25d3</v>
       </c>
       <c r="B162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D162" t="str">
         <v>Name 161</v>
       </c>
-      <c r="E162" t="str">
-        <v>a35c1c54-6d0d-4061-baa3-a3ea5071c89b</v>
-      </c>
     </row>
     <row r="163">
-      <c r="A163">
-        <v>162</v>
+      <c r="A163" t="str">
+        <v>312cf467-0800-4cd9-976f-76236e2c52f5</v>
       </c>
       <c r="B163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" t="str">
         <v>Name 162</v>
       </c>
-      <c r="E163" t="str">
-        <v>9d1d37e0-c9d0-49e1-aadc-2bd8d2b01160</v>
-      </c>
     </row>
     <row r="164">
-      <c r="A164">
-        <v>163</v>
+      <c r="A164" t="str">
+        <v>9b23450b-6e53-4d86-8ede-be3887438bd7</v>
       </c>
       <c r="B164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D164" t="str">
         <v>Name 163</v>
       </c>
-      <c r="E164" t="str">
-        <v>cd8192dc-928f-4cf0-847b-142f6f466f9c</v>
-      </c>
     </row>
     <row r="165">
-      <c r="A165">
-        <v>164</v>
+      <c r="A165" t="str">
+        <v>236c3dd5-5d3e-4a79-adfd-b6326ed573be</v>
       </c>
       <c r="B165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D165" t="str">
         <v>Name 164</v>
       </c>
-      <c r="E165" t="str">
-        <v>de949212-6a6b-41e6-b18e-eb63c695a89c</v>
-      </c>
     </row>
     <row r="166">
-      <c r="A166">
-        <v>165</v>
+      <c r="A166" t="str">
+        <v>572e4150-6957-4fa0-ae34-a31a64dbabb9</v>
       </c>
       <c r="B166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D166" t="str">
         <v>Name 165</v>
       </c>
-      <c r="E166" t="str">
-        <v>568908e8-bd3c-4e05-b040-3145c766ccee</v>
-      </c>
     </row>
     <row r="167">
-      <c r="A167">
-        <v>166</v>
+      <c r="A167" t="str">
+        <v>d1172953-1ea2-4e3a-af4c-ae4b8d087466</v>
       </c>
       <c r="B167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D167" t="str">
         <v>Name 166</v>
       </c>
-      <c r="E167" t="str">
-        <v>a03ca38e-d341-4445-9fe0-8af663f3cc28</v>
-      </c>
     </row>
     <row r="168">
-      <c r="A168">
-        <v>167</v>
+      <c r="A168" t="str">
+        <v>e94667c9-ba65-44d6-8505-85fabdaf218e</v>
       </c>
       <c r="B168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D168" t="str">
         <v>Name 167</v>
       </c>
-      <c r="E168" t="str">
-        <v>4ed4ee4c-f6b3-49f2-9e9e-6c40efd1497e</v>
-      </c>
     </row>
     <row r="169">
-      <c r="A169">
-        <v>168</v>
+      <c r="A169" t="str">
+        <v>12ebb7fb-b132-4a9d-a0ae-6369c2dba6be</v>
       </c>
       <c r="B169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D169" t="str">
         <v>Name 168</v>
       </c>
-      <c r="E169" t="str">
-        <v>a34db240-1596-4afa-b43d-bf9b98d9bfe8</v>
-      </c>
     </row>
     <row r="170">
-      <c r="A170">
-        <v>169</v>
+      <c r="A170" t="str">
+        <v>3e1ff65e-a482-436f-a83a-d2614bfcf4ff</v>
       </c>
       <c r="B170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D170" t="str">
         <v>Name 169</v>
       </c>
-      <c r="E170" t="str">
-        <v>2cd0d069-4198-47c1-a776-75f7b2fba232</v>
-      </c>
     </row>
     <row r="171">
-      <c r="A171">
-        <v>170</v>
+      <c r="A171" t="str">
+        <v>d6c9e6ae-9817-44d9-93de-5b609f7f51c1</v>
       </c>
       <c r="B171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D171" t="str">
         <v>Name 170</v>
       </c>
-      <c r="E171" t="str">
-        <v>88d2ca51-ea2f-4bd0-a2b8-2c87c0aabd62</v>
-      </c>
     </row>
     <row r="172">
-      <c r="A172">
-        <v>171</v>
+      <c r="A172" t="str">
+        <v>93567791-dd06-453a-87e7-e009c3a82b33</v>
       </c>
       <c r="B172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D172" t="str">
         <v>Name 171</v>
       </c>
-      <c r="E172" t="str">
-        <v>0b4f48bc-b2e0-4fbe-b5d4-17cacade4365</v>
-      </c>
     </row>
     <row r="173">
-      <c r="A173">
-        <v>172</v>
+      <c r="A173" t="str">
+        <v>9a030fa7-f8e0-4130-ad75-63dc15be571b</v>
       </c>
       <c r="B173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D173" t="str">
         <v>Name 172</v>
       </c>
-      <c r="E173" t="str">
-        <v>dfd23b58-ef19-4c10-9a21-ac96a9f550e2</v>
-      </c>
     </row>
     <row r="174">
-      <c r="A174">
-        <v>173</v>
+      <c r="A174" t="str">
+        <v>90fdd92d-cd6f-455c-ae63-d08da7ee8375</v>
       </c>
       <c r="B174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D174" t="str">
         <v>Name 173</v>
       </c>
-      <c r="E174" t="str">
-        <v>b2a1420e-6a48-4edd-ba68-336a5532c4c6</v>
-      </c>
     </row>
     <row r="175">
-      <c r="A175">
-        <v>174</v>
+      <c r="A175" t="str">
+        <v>d0409304-7e39-4a68-b8df-d562848f6a26</v>
       </c>
       <c r="B175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D175" t="str">
         <v>Name 174</v>
       </c>
-      <c r="E175" t="str">
-        <v>9ef6fabb-a0db-4a90-bab1-2c2b90ba0033</v>
-      </c>
     </row>
     <row r="176">
-      <c r="A176">
-        <v>175</v>
+      <c r="A176" t="str">
+        <v>b17f13c1-c501-484d-b325-c86d42a61c72</v>
       </c>
       <c r="B176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D176" t="str">
         <v>Name 175</v>
       </c>
-      <c r="E176" t="str">
-        <v>9745dce1-7c25-4cb4-9f8b-06c069d4a35c</v>
-      </c>
     </row>
     <row r="177">
-      <c r="A177">
-        <v>176</v>
+      <c r="A177" t="str">
+        <v>56c09583-5cea-4aa2-a58b-f36a3b2aa9b4</v>
       </c>
       <c r="B177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D177" t="str">
         <v>Name 176</v>
       </c>
-      <c r="E177" t="str">
-        <v>91017c4b-3f9e-46d6-af0c-97a581d6eaed</v>
-      </c>
     </row>
     <row r="178">
-      <c r="A178">
-        <v>177</v>
+      <c r="A178" t="str">
+        <v>4a1a740a-65a6-45b0-98b4-a5d66b5f3a67</v>
       </c>
       <c r="B178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D178" t="str">
         <v>Name 177</v>
       </c>
-      <c r="E178" t="str">
-        <v>03d185f2-dd28-4290-b0f6-da307448bca6</v>
-      </c>
     </row>
     <row r="179">
-      <c r="A179">
-        <v>178</v>
+      <c r="A179" t="str">
+        <v>9a298952-cf39-4e93-8c95-01ada31936cb</v>
       </c>
       <c r="B179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D179" t="str">
         <v>Name 178</v>
       </c>
-      <c r="E179" t="str">
-        <v>e2717346-64f3-493f-949d-32c026979726</v>
-      </c>
     </row>
     <row r="180">
-      <c r="A180">
-        <v>179</v>
+      <c r="A180" t="str">
+        <v>225ce0a9-afe1-4403-a522-19ca4f99f0f0</v>
       </c>
       <c r="B180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D180" t="str">
         <v>Name 179</v>
       </c>
-      <c r="E180" t="str">
-        <v>c427ce6d-2d04-458c-9724-090135fa5e80</v>
-      </c>
     </row>
     <row r="181">
-      <c r="A181">
-        <v>180</v>
+      <c r="A181" t="str">
+        <v>5f76e4a9-6c31-406a-9a22-2b699dd223da</v>
       </c>
       <c r="B181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D181" t="str">
         <v>Name 180</v>
       </c>
-      <c r="E181" t="str">
-        <v>ae715163-3a1c-4506-9757-150daad768c4</v>
-      </c>
     </row>
     <row r="182">
-      <c r="A182">
-        <v>181</v>
+      <c r="A182" t="str">
+        <v>fe48c7d4-df4d-4cf4-9ec2-95692739efa0</v>
       </c>
       <c r="B182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D182" t="str">
         <v>Name 181</v>
       </c>
-      <c r="E182" t="str">
-        <v>fe2eabc9-c32b-41a1-88c9-2fb16d388b1b</v>
-      </c>
     </row>
     <row r="183">
-      <c r="A183">
-        <v>182</v>
+      <c r="A183" t="str">
+        <v>f2bf4b52-4655-4dc3-94da-fa0b49fcc14b</v>
       </c>
       <c r="B183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D183" t="str">
         <v>Name 182</v>
       </c>
-      <c r="E183" t="str">
-        <v>a807fd48-b012-4c4d-bbea-4b7147f257bf</v>
-      </c>
     </row>
     <row r="184">
-      <c r="A184">
-        <v>183</v>
+      <c r="A184" t="str">
+        <v>be11cef0-970a-4d09-ac11-3264b5de6c4a</v>
       </c>
       <c r="B184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D184" t="str">
         <v>Name 183</v>
       </c>
-      <c r="E184" t="str">
-        <v>a4c16a04-59fd-4ffa-b8ca-8016c1a0278d</v>
-      </c>
     </row>
     <row r="185">
-      <c r="A185">
-        <v>184</v>
+      <c r="A185" t="str">
+        <v>f4c77c39-f9fd-4ad1-b468-1e9d62c79214</v>
       </c>
       <c r="B185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D185" t="str">
         <v>Name 184</v>
       </c>
-      <c r="E185" t="str">
-        <v>83e7a495-61d0-4c96-b617-9a5808932c03</v>
-      </c>
     </row>
     <row r="186">
-      <c r="A186">
-        <v>185</v>
+      <c r="A186" t="str">
+        <v>6a5770db-12b1-4ec2-87ed-d7998f3abae5</v>
       </c>
       <c r="B186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D186" t="str">
         <v>Name 185</v>
       </c>
-      <c r="E186" t="str">
-        <v>9d6dab77-bafe-428a-a97d-fa468e5b52ca</v>
-      </c>
     </row>
     <row r="187">
-      <c r="A187">
-        <v>186</v>
+      <c r="A187" t="str">
+        <v>cda6cb08-db7b-4049-a785-03e9f1636767</v>
       </c>
       <c r="B187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D187" t="str">
         <v>Name 186</v>
       </c>
-      <c r="E187" t="str">
-        <v>869df090-613a-4cb5-b586-184e096761c5</v>
-      </c>
     </row>
     <row r="188">
-      <c r="A188">
-        <v>187</v>
+      <c r="A188" t="str">
+        <v>ed842574-272e-4e93-9c88-f06c55b5478e</v>
       </c>
       <c r="B188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D188" t="str">
         <v>Name 187</v>
       </c>
-      <c r="E188" t="str">
-        <v>b7b23d73-eaaa-46f4-bf88-0b676fd91fe6</v>
-      </c>
     </row>
     <row r="189">
-      <c r="A189">
-        <v>188</v>
+      <c r="A189" t="str">
+        <v>e3911b8a-6269-41f9-b7c7-2b25af343366</v>
       </c>
       <c r="B189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D189" t="str">
         <v>Name 188</v>
       </c>
-      <c r="E189" t="str">
-        <v>5a1b5149-f8f1-408e-98fe-9097e26a0dde</v>
-      </c>
     </row>
     <row r="190">
-      <c r="A190">
-        <v>189</v>
+      <c r="A190" t="str">
+        <v>b41706f6-3f62-4149-8b29-47979d0c8d55</v>
       </c>
       <c r="B190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D190" t="str">
         <v>Name 189</v>
       </c>
-      <c r="E190" t="str">
-        <v>f268179c-1e4a-434a-8f59-47ba8e54311c</v>
-      </c>
     </row>
     <row r="191">
-      <c r="A191">
-        <v>190</v>
+      <c r="A191" t="str">
+        <v>d3add28d-3abe-4d10-bca1-0a903971bf8b</v>
       </c>
       <c r="B191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D191" t="str">
         <v>Name 190</v>
       </c>
-      <c r="E191" t="str">
-        <v>2aed3e7d-ee2e-4f02-ae5e-b5633cc5bba5</v>
-      </c>
     </row>
     <row r="192">
-      <c r="A192">
-        <v>191</v>
+      <c r="A192" t="str">
+        <v>a6dd017d-414f-46be-a5fe-f90c6303e396</v>
       </c>
       <c r="B192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D192" t="str">
         <v>Name 191</v>
       </c>
-      <c r="E192" t="str">
-        <v>1ead7192-c2bf-48fa-b4b6-a3be054a5721</v>
-      </c>
     </row>
     <row r="193">
-      <c r="A193">
-        <v>192</v>
+      <c r="A193" t="str">
+        <v>ada379b5-37db-4bc5-9ffd-dad236d9d5f7</v>
       </c>
       <c r="B193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D193" t="str">
         <v>Name 192</v>
       </c>
-      <c r="E193" t="str">
-        <v>29f5ce9c-2493-4eb3-b8e1-dce723eeea84</v>
-      </c>
     </row>
     <row r="194">
-      <c r="A194">
-        <v>193</v>
+      <c r="A194" t="str">
+        <v>52594df2-13d5-44e6-9c41-bb1120351fef</v>
       </c>
       <c r="B194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D194" t="str">
         <v>Name 193</v>
       </c>
-      <c r="E194" t="str">
-        <v>45996707-7c87-4fb5-a73e-345f759aafcc</v>
-      </c>
     </row>
     <row r="195">
-      <c r="A195">
-        <v>194</v>
+      <c r="A195" t="str">
+        <v>b00e09c1-fa0b-4c90-acc8-10d72b2f98c6</v>
       </c>
       <c r="B195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D195" t="str">
         <v>Name 194</v>
       </c>
-      <c r="E195" t="str">
-        <v>169d9686-a22d-4ea7-8dc9-04b148dcc051</v>
-      </c>
     </row>
     <row r="196">
-      <c r="A196">
-        <v>195</v>
+      <c r="A196" t="str">
+        <v>8e15f7b8-20dc-4f4e-a330-60035080ac67</v>
       </c>
       <c r="B196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D196" t="str">
         <v>Name 195</v>
       </c>
-      <c r="E196" t="str">
-        <v>e978add6-bd9f-48b5-8068-dc2c6cfddaff</v>
-      </c>
     </row>
     <row r="197">
-      <c r="A197">
-        <v>196</v>
+      <c r="A197" t="str">
+        <v>e262bdbd-1ad9-4f69-bb5c-f96566a702ad</v>
       </c>
       <c r="B197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D197" t="str">
         <v>Name 196</v>
       </c>
-      <c r="E197" t="str">
-        <v>c90f7018-3fdf-4e37-9e73-5e60453328bb</v>
-      </c>
     </row>
     <row r="198">
-      <c r="A198">
-        <v>197</v>
+      <c r="A198" t="str">
+        <v>324031c0-f0fa-4c80-92e5-2afd007a6358</v>
       </c>
       <c r="B198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D198" t="str">
         <v>Name 197</v>
       </c>
-      <c r="E198" t="str">
-        <v>33f25158-68e2-428e-a1a9-4d6dbfd0f810</v>
-      </c>
     </row>
     <row r="199">
-      <c r="A199">
-        <v>198</v>
+      <c r="A199" t="str">
+        <v>7441b3d4-da49-4856-b0e0-b100b78ffcf1</v>
       </c>
       <c r="B199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D199" t="str">
         <v>Name 198</v>
       </c>
-      <c r="E199" t="str">
-        <v>8b522d56-db4c-4f00-9ebe-5ca393168dc9</v>
-      </c>
     </row>
     <row r="200">
-      <c r="A200">
-        <v>199</v>
+      <c r="A200" t="str">
+        <v>355cc46e-4dd0-4dd2-9087-035806441e9e</v>
       </c>
       <c r="B200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D200" t="str">
         <v>Name 199</v>
       </c>
-      <c r="E200" t="str">
-        <v>1202ab5e-ba19-48f8-8a7d-e7870af4dd2c</v>
-      </c>
     </row>
     <row r="201">
-      <c r="A201">
-        <v>200</v>
+      <c r="A201" t="str">
+        <v>00d79adf-a023-4958-8bec-06e2ee409174</v>
       </c>
       <c r="B201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D201" t="str">
         <v>Name 200</v>
       </c>
-      <c r="E201" t="str">
-        <v>50c197b0-c6d2-42c5-84d6-248b1efe483c</v>
-      </c>
     </row>
     <row r="202">
-      <c r="A202">
-        <v>201</v>
+      <c r="A202" t="str">
+        <v>a93a1562-b402-44c2-be2c-d51594deb214</v>
       </c>
       <c r="B202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D202" t="str">
         <v>Name 201</v>
       </c>
-      <c r="E202" t="str">
-        <v>933be55f-6a6c-41d0-b7c3-0752cb3601e0</v>
-      </c>
     </row>
     <row r="203">
-      <c r="A203">
-        <v>202</v>
+      <c r="A203" t="str">
+        <v>20b94ec1-bbd7-4aba-951e-57413d019475</v>
       </c>
       <c r="B203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D203" t="str">
         <v>Name 202</v>
       </c>
-      <c r="E203" t="str">
-        <v>d3f70a2d-0f50-4480-a31e-160bacacddc6</v>
-      </c>
     </row>
     <row r="204">
-      <c r="A204">
-        <v>203</v>
+      <c r="A204" t="str">
+        <v>ca8eb898-5a76-4464-9d38-944992838669</v>
       </c>
       <c r="B204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D204" t="str">
         <v>Name 203</v>
       </c>
-      <c r="E204" t="str">
-        <v>a4831d1c-f8c3-4cb2-a55e-9c6fe6a7824b</v>
-      </c>
     </row>
     <row r="205">
-      <c r="A205">
-        <v>204</v>
+      <c r="A205" t="str">
+        <v>30fe13b2-9c69-421e-b7b9-7656c556db70</v>
       </c>
       <c r="B205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D205" t="str">
         <v>Name 204</v>
       </c>
-      <c r="E205" t="str">
-        <v>87cf69b8-bd3e-4b98-b5ec-296a3cd1d0bb</v>
-      </c>
     </row>
     <row r="206">
-      <c r="A206">
-        <v>205</v>
+      <c r="A206" t="str">
+        <v>815f1de6-f8f3-4db7-ad0d-9c6b92114361</v>
       </c>
       <c r="B206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D206" t="str">
         <v>Name 205</v>
       </c>
-      <c r="E206" t="str">
-        <v>370fd2a2-ddb9-4c44-b667-fdd56f7c2733</v>
-      </c>
     </row>
     <row r="207">
-      <c r="A207">
-        <v>206</v>
+      <c r="A207" t="str">
+        <v>05ea9368-d37c-4aa9-b5f4-5a63faea16e7</v>
       </c>
       <c r="B207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D207" t="str">
         <v>Name 206</v>
       </c>
-      <c r="E207" t="str">
-        <v>216617b5-0bd4-423e-9337-8418becf99f2</v>
-      </c>
     </row>
     <row r="208">
-      <c r="A208">
-        <v>207</v>
+      <c r="A208" t="str">
+        <v>3c18bd3f-b44c-46df-91f3-1db8447f9eeb</v>
       </c>
       <c r="B208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D208" t="str">
         <v>Name 207</v>
       </c>
-      <c r="E208" t="str">
-        <v>955852c4-83f4-4c2b-9370-5ef8a7eb7977</v>
-      </c>
     </row>
     <row r="209">
-      <c r="A209">
-        <v>208</v>
+      <c r="A209" t="str">
+        <v>9df315b9-fed7-495e-8076-c5699a99ece5</v>
       </c>
       <c r="B209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D209" t="str">
         <v>Name 208</v>
       </c>
-      <c r="E209" t="str">
-        <v>f0d2b311-e301-4a75-8a9e-319658414f82</v>
-      </c>
     </row>
     <row r="210">
-      <c r="A210">
-        <v>209</v>
+      <c r="A210" t="str">
+        <v>b8313065-0ab4-4c26-b537-740a041741b0</v>
       </c>
       <c r="B210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D210" t="str">
         <v>Name 209</v>
       </c>
-      <c r="E210" t="str">
-        <v>a3c23779-06ef-48f6-b1ea-9ec6621849e7</v>
-      </c>
     </row>
     <row r="211">
-      <c r="A211">
-        <v>210</v>
+      <c r="A211" t="str">
+        <v>704b3932-587a-4818-95f2-e775cf54ba8e</v>
       </c>
       <c r="B211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D211" t="str">
         <v>Name 210</v>
       </c>
-      <c r="E211" t="str">
-        <v>e9cadac6-0671-428d-974b-eb19e1d9404c</v>
-      </c>
     </row>
     <row r="212">
-      <c r="A212">
-        <v>211</v>
+      <c r="A212" t="str">
+        <v>08097a34-019d-4e04-b37c-874c824dd807</v>
       </c>
       <c r="B212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D212" t="str">
         <v>Name 211</v>
       </c>
-      <c r="E212" t="str">
-        <v>364751ab-0145-4c57-bc8c-e0fba0176b4c</v>
-      </c>
     </row>
     <row r="213">
-      <c r="A213">
-        <v>212</v>
+      <c r="A213" t="str">
+        <v>969c5570-1d34-46a1-a1fc-171403239b63</v>
       </c>
       <c r="B213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D213" t="str">
         <v>Name 212</v>
       </c>
-      <c r="E213" t="str">
-        <v>f4a7a701-690e-4f21-85dd-a1c91e732203</v>
-      </c>
     </row>
     <row r="214">
-      <c r="A214">
-        <v>213</v>
+      <c r="A214" t="str">
+        <v>ec9c4b05-d8bf-431e-87d8-1868270f100c</v>
       </c>
       <c r="B214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D214" t="str">
         <v>Name 213</v>
       </c>
-      <c r="E214" t="str">
-        <v>eea8b428-0de8-4b12-82d4-b3e9bb570848</v>
-      </c>
     </row>
     <row r="215">
-      <c r="A215">
-        <v>214</v>
+      <c r="A215" t="str">
+        <v>ac3c447e-b040-4d13-905f-d36fadc344a6</v>
       </c>
       <c r="B215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D215" t="str">
         <v>Name 214</v>
       </c>
-      <c r="E215" t="str">
-        <v>5c6e136c-6185-4dab-b256-cd8bbd25985d</v>
-      </c>
     </row>
     <row r="216">
-      <c r="A216">
-        <v>215</v>
+      <c r="A216" t="str">
+        <v>a9e0a01c-4238-4520-9685-04d65fd01bbc</v>
       </c>
       <c r="B216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D216" t="str">
         <v>Name 215</v>
       </c>
-      <c r="E216" t="str">
-        <v>11485bb9-889d-4b33-95a2-7444c65c444c</v>
-      </c>
     </row>
     <row r="217">
-      <c r="A217">
-        <v>216</v>
+      <c r="A217" t="str">
+        <v>a975b379-772f-4bd8-aa6d-648d8e01f941</v>
       </c>
       <c r="B217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D217" t="str">
         <v>Name 216</v>
       </c>
-      <c r="E217" t="str">
-        <v>031f256f-d61b-49e2-a153-7981875073ec</v>
-      </c>
     </row>
     <row r="218">
-      <c r="A218">
-        <v>217</v>
+      <c r="A218" t="str">
+        <v>7d6298cd-d1a5-4a93-afe3-36887bdf5874</v>
       </c>
       <c r="B218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D218" t="str">
         <v>Name 217</v>
       </c>
-      <c r="E218" t="str">
-        <v>2f2e719a-7fc9-4ec3-b7ce-31912e524f45</v>
-      </c>
     </row>
     <row r="219">
-      <c r="A219">
-        <v>218</v>
+      <c r="A219" t="str">
+        <v>f1fb592d-2536-4b6b-af28-0aa131f2d202</v>
       </c>
       <c r="B219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D219" t="str">
         <v>Name 218</v>
       </c>
-      <c r="E219" t="str">
-        <v>e5809205-177b-491a-9b57-4d57dca1da3a</v>
-      </c>
     </row>
     <row r="220">
-      <c r="A220">
-        <v>219</v>
+      <c r="A220" t="str">
+        <v>a04a169f-6f50-4fd4-9a6b-be3e8a521781</v>
       </c>
       <c r="B220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D220" t="str">
         <v>Name 219</v>
       </c>
-      <c r="E220" t="str">
-        <v>9bf81481-7e26-4978-ab87-6270262d93c0</v>
-      </c>
     </row>
     <row r="221">
-      <c r="A221">
-        <v>220</v>
+      <c r="A221" t="str">
+        <v>cd152f7c-6cac-4165-9087-d21b741f2163</v>
       </c>
       <c r="B221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D221" t="str">
         <v>Name 220</v>
       </c>
-      <c r="E221" t="str">
-        <v>660f4acc-de33-4a73-83cd-5d7b5e07ed9c</v>
-      </c>
     </row>
     <row r="222">
-      <c r="A222">
-        <v>221</v>
+      <c r="A222" t="str">
+        <v>90b650e0-25a7-44d3-ab9f-a87ebd2ce5d9</v>
       </c>
       <c r="B222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D222" t="str">
         <v>Name 221</v>
       </c>
-      <c r="E222" t="str">
-        <v>c6428d00-98c6-4a85-a66e-e8843544dbaa</v>
-      </c>
     </row>
     <row r="223">
-      <c r="A223">
-        <v>222</v>
+      <c r="A223" t="str">
+        <v>b8651d5d-1239-4fe0-89bf-30f866ccf62e</v>
       </c>
       <c r="B223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D223" t="str">
         <v>Name 222</v>
       </c>
-      <c r="E223" t="str">
-        <v>0baef7d6-8074-4eb9-a006-f623111f6074</v>
-      </c>
     </row>
     <row r="224">
-      <c r="A224">
-        <v>223</v>
+      <c r="A224" t="str">
+        <v>5a7faaea-4cf5-41f3-9df6-d585cfd7277e</v>
       </c>
       <c r="B224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D224" t="str">
         <v>Name 223</v>
       </c>
-      <c r="E224" t="str">
-        <v>3785241b-e01f-457b-8b09-bc433814aa5c</v>
-      </c>
     </row>
     <row r="225">
-      <c r="A225">
-        <v>224</v>
+      <c r="A225" t="str">
+        <v>a979198d-58a7-4fea-852f-1d5883e1fe57</v>
       </c>
       <c r="B225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D225" t="str">
         <v>Name 224</v>
       </c>
-      <c r="E225" t="str">
-        <v>e8cc2878-4699-4563-8524-2f04b189633c</v>
-      </c>
     </row>
     <row r="226">
-      <c r="A226">
-        <v>225</v>
+      <c r="A226" t="str">
+        <v>e55c7884-a8e1-41e2-a046-193577d3efce</v>
       </c>
       <c r="B226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D226" t="str">
         <v>Name 225</v>
       </c>
-      <c r="E226" t="str">
-        <v>233df79a-76a3-400a-9642-8857575f0833</v>
-      </c>
     </row>
     <row r="227">
-      <c r="A227">
-        <v>226</v>
+      <c r="A227" t="str">
+        <v>02d47f93-2ac9-49bc-a8a7-e038e5bdd11e</v>
       </c>
       <c r="B227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D227" t="str">
         <v>Name 226</v>
       </c>
-      <c r="E227" t="str">
-        <v>ee50874e-c18d-4cb4-9d4a-acf6f80de267</v>
-      </c>
     </row>
     <row r="228">
-      <c r="A228">
-        <v>227</v>
+      <c r="A228" t="str">
+        <v>2fec2152-a540-42ef-acba-357f04ffcdba</v>
       </c>
       <c r="B228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D228" t="str">
         <v>Name 227</v>
       </c>
-      <c r="E228" t="str">
-        <v>dc8a11df-b5c1-4085-8871-1500ae99bf4a</v>
-      </c>
     </row>
     <row r="229">
-      <c r="A229">
-        <v>228</v>
+      <c r="A229" t="str">
+        <v>f46bf44c-c477-4131-9b50-967efc223e34</v>
       </c>
       <c r="B229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D229" t="str">
         <v>Name 228</v>
       </c>
-      <c r="E229" t="str">
-        <v>22aa6b07-3e5d-4f83-93bb-5ea006c719ee</v>
-      </c>
     </row>
     <row r="230">
-      <c r="A230">
-        <v>229</v>
+      <c r="A230" t="str">
+        <v>7ee2ce5f-e16f-4be0-98ae-8f846912662b</v>
       </c>
       <c r="B230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D230" t="str">
         <v>Name 229</v>
       </c>
-      <c r="E230" t="str">
-        <v>e44cdef2-c0f6-417e-9ffd-be086fc32cd1</v>
-      </c>
     </row>
     <row r="231">
-      <c r="A231">
-        <v>230</v>
+      <c r="A231" t="str">
+        <v>62f86404-3f31-4c3b-b02b-596a51ec4fb6</v>
       </c>
       <c r="B231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D231" t="str">
         <v>Name 230</v>
       </c>
-      <c r="E231" t="str">
-        <v>674afb39-c957-48f9-9b21-25a05879b080</v>
-      </c>
     </row>
     <row r="232">
-      <c r="A232">
-        <v>231</v>
+      <c r="A232" t="str">
+        <v>f8a47745-3417-4812-b7a3-a055702e3c5d</v>
       </c>
       <c r="B232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D232" t="str">
         <v>Name 231</v>
       </c>
-      <c r="E232" t="str">
-        <v>ec17ec51-b079-47d8-bcbb-6b664e50c467</v>
-      </c>
     </row>
     <row r="233">
-      <c r="A233">
-        <v>232</v>
+      <c r="A233" t="str">
+        <v>82d60fd0-a16d-4e68-952f-33ecf90ddbfa</v>
       </c>
       <c r="B233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D233" t="str">
         <v>Name 232</v>
       </c>
-      <c r="E233" t="str">
-        <v>608d6d19-b332-4a51-bc79-e5a9cbd8595e</v>
-      </c>
     </row>
     <row r="234">
-      <c r="A234">
-        <v>233</v>
+      <c r="A234" t="str">
+        <v>4f114e7b-875b-48c4-9233-17ce76664554</v>
       </c>
       <c r="B234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D234" t="str">
         <v>Name 233</v>
       </c>
-      <c r="E234" t="str">
-        <v>d8fd2d54-4de4-4351-b16d-1de079facd37</v>
-      </c>
     </row>
     <row r="235">
-      <c r="A235">
-        <v>234</v>
+      <c r="A235" t="str">
+        <v>aa40ce2b-e5bd-4c1f-9429-65b5a7118e17</v>
       </c>
       <c r="B235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D235" t="str">
         <v>Name 234</v>
       </c>
-      <c r="E235" t="str">
-        <v>83d74598-4527-4b76-8cd7-a4c4c6a45e4b</v>
-      </c>
     </row>
     <row r="236">
-      <c r="A236">
-        <v>235</v>
+      <c r="A236" t="str">
+        <v>4cd99737-f21a-4eb7-8ee2-cbb61c9ed31a</v>
       </c>
       <c r="B236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D236" t="str">
         <v>Name 235</v>
       </c>
-      <c r="E236" t="str">
-        <v>2d24c58f-af6b-4f61-a5ef-c13cf013f96c</v>
-      </c>
     </row>
     <row r="237">
-      <c r="A237">
-        <v>236</v>
+      <c r="A237" t="str">
+        <v>da83d079-d398-4ad8-aae2-adc68ccad8ba</v>
       </c>
       <c r="B237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D237" t="str">
         <v>Name 236</v>
       </c>
-      <c r="E237" t="str">
-        <v>4c68adb7-ad6e-49f7-9846-1b62097511d1</v>
-      </c>
     </row>
     <row r="238">
-      <c r="A238">
-        <v>237</v>
+      <c r="A238" t="str">
+        <v>d4aa2678-6c9c-41d2-bf94-95fe0acafb63</v>
       </c>
       <c r="B238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D238" t="str">
         <v>Name 237</v>
       </c>
-      <c r="E238" t="str">
-        <v>a5dc6e67-06c4-4321-83d6-8531c1235c2b</v>
-      </c>
     </row>
     <row r="239">
-      <c r="A239">
-        <v>238</v>
+      <c r="A239" t="str">
+        <v>e78b02c9-655e-46c7-894a-25b91eb0324e</v>
       </c>
       <c r="B239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D239" t="str">
         <v>Name 238</v>
       </c>
-      <c r="E239" t="str">
-        <v>99691531-5149-48a5-b89f-118a4c4685c9</v>
-      </c>
     </row>
     <row r="240">
-      <c r="A240">
-        <v>239</v>
+      <c r="A240" t="str">
+        <v>64135873-bf9b-4a97-b1d7-c7eea7be97f6</v>
       </c>
       <c r="B240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D240" t="str">
         <v>Name 239</v>
       </c>
-      <c r="E240" t="str">
-        <v>4df8628d-310e-4034-b6d2-0fde5c8492a3</v>
-      </c>
     </row>
     <row r="241">
-      <c r="A241">
-        <v>240</v>
+      <c r="A241" t="str">
+        <v>8648ed88-9f0b-4b49-b782-98702df95022</v>
       </c>
       <c r="B241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D241" t="str">
         <v>Name 240</v>
       </c>
-      <c r="E241" t="str">
-        <v>8623b5d8-005d-4fed-8ce0-b39ab0017373</v>
-      </c>
     </row>
     <row r="242">
-      <c r="A242">
-        <v>241</v>
+      <c r="A242" t="str">
+        <v>689f80df-c291-4472-9043-d30baf0d5c42</v>
       </c>
       <c r="B242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D242" t="str">
         <v>Name 241</v>
       </c>
-      <c r="E242" t="str">
-        <v>b571c068-a846-4ea4-b5d5-1da7a4fb398e</v>
-      </c>
     </row>
     <row r="243">
-      <c r="A243">
-        <v>242</v>
+      <c r="A243" t="str">
+        <v>9b604eac-438e-4f88-a72a-654cda27b1c0</v>
       </c>
       <c r="B243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D243" t="str">
         <v>Name 242</v>
       </c>
-      <c r="E243" t="str">
-        <v>d062b5d6-c2bf-468b-8daf-749d935c54f7</v>
-      </c>
     </row>
     <row r="244">
-      <c r="A244">
-        <v>243</v>
+      <c r="A244" t="str">
+        <v>41574e63-c840-4471-84b6-0fc9e8fe3147</v>
       </c>
       <c r="B244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D244" t="str">
         <v>Name 243</v>
       </c>
-      <c r="E244" t="str">
-        <v>bdc639b1-97e6-4893-afa6-42ae7d9d035f</v>
-      </c>
     </row>
     <row r="245">
-      <c r="A245">
-        <v>244</v>
+      <c r="A245" t="str">
+        <v>fa9cc955-1736-429d-88cf-108f13453e50</v>
       </c>
       <c r="B245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D245" t="str">
         <v>Name 244</v>
       </c>
-      <c r="E245" t="str">
-        <v>8edfc4da-adac-4022-b498-90ef3116b963</v>
-      </c>
     </row>
     <row r="246">
-      <c r="A246">
-        <v>245</v>
+      <c r="A246" t="str">
+        <v>142e7099-e64a-46f6-9bf0-dd34a731d50f</v>
       </c>
       <c r="B246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D246" t="str">
         <v>Name 245</v>
       </c>
-      <c r="E246" t="str">
-        <v>1191a154-d8c0-46da-8b86-34fdbb518bf5</v>
-      </c>
     </row>
     <row r="247">
-      <c r="A247">
-        <v>246</v>
+      <c r="A247" t="str">
+        <v>31390822-91ba-4f32-a0a6-359732060fa3</v>
       </c>
       <c r="B247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D247" t="str">
         <v>Name 246</v>
       </c>
-      <c r="E247" t="str">
-        <v>8433214b-ad32-4472-848b-6ef54cdece1e</v>
-      </c>
     </row>
     <row r="248">
-      <c r="A248">
-        <v>247</v>
+      <c r="A248" t="str">
+        <v>ded5e2db-01d1-4efc-8755-95571ed88b3f</v>
       </c>
       <c r="B248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D248" t="str">
         <v>Name 247</v>
       </c>
-      <c r="E248" t="str">
-        <v>afae9d29-dec4-4b69-924b-894a8446fcf1</v>
-      </c>
     </row>
     <row r="249">
-      <c r="A249">
-        <v>248</v>
+      <c r="A249" t="str">
+        <v>321d5238-d393-4f5b-87df-0273a50b6c86</v>
       </c>
       <c r="B249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D249" t="str">
         <v>Name 248</v>
       </c>
-      <c r="E249" t="str">
-        <v>1a689755-d407-4abe-8a73-1d12608dec71</v>
-      </c>
     </row>
     <row r="250">
-      <c r="A250">
-        <v>249</v>
+      <c r="A250" t="str">
+        <v>778a843b-f0dc-44b7-8aa3-99b5d9b56369</v>
       </c>
       <c r="B250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D250" t="str">
         <v>Name 249</v>
       </c>
-      <c r="E250" t="str">
-        <v>660cdf1e-7762-473f-81e0-bc18cabf44b7</v>
-      </c>
     </row>
     <row r="251">
-      <c r="A251">
-        <v>250</v>
+      <c r="A251" t="str">
+        <v>1d07fd58-fecf-42f3-99c9-c8eb4255a66c</v>
       </c>
       <c r="B251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D251" t="str">
         <v>Name 250</v>
       </c>
-      <c r="E251" t="str">
-        <v>6e6c7e46-0e2b-48af-86e5-14ba875689b3</v>
-      </c>
     </row>
     <row r="252">
-      <c r="A252">
-        <v>251</v>
+      <c r="A252" t="str">
+        <v>fd5f63b7-4b91-4501-9de0-437b15dcbad5</v>
       </c>
       <c r="B252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D252" t="str">
         <v>Name 251</v>
       </c>
-      <c r="E252" t="str">
-        <v>d8bd5684-6512-4dc4-b8c7-9cc75619f88a</v>
-      </c>
     </row>
     <row r="253">
-      <c r="A253">
-        <v>252</v>
+      <c r="A253" t="str">
+        <v>170e0f65-3d89-4b14-9bdd-bd08c5582c4b</v>
       </c>
       <c r="B253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D253" t="str">
         <v>Name 252</v>
       </c>
-      <c r="E253" t="str">
-        <v>3a2c2028-d132-4c00-9504-9a0165669d21</v>
-      </c>
     </row>
     <row r="254">
-      <c r="A254">
-        <v>253</v>
+      <c r="A254" t="str">
+        <v>2dda5a85-5334-45e3-ba8e-9bb9f63d5bcd</v>
       </c>
       <c r="B254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D254" t="str">
         <v>Name 253</v>
       </c>
-      <c r="E254" t="str">
-        <v>931d7917-c3b1-4b35-a51b-36d3a7fa83b3</v>
-      </c>
     </row>
     <row r="255">
-      <c r="A255">
-        <v>254</v>
+      <c r="A255" t="str">
+        <v>fc90e1c7-e785-4c87-91c6-29aa7ad47c67</v>
       </c>
       <c r="B255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D255" t="str">
         <v>Name 254</v>
       </c>
-      <c r="E255" t="str">
-        <v>66239289-f984-426b-961c-5c4c84cd1cf6</v>
-      </c>
     </row>
     <row r="256">
-      <c r="A256">
-        <v>255</v>
+      <c r="A256" t="str">
+        <v>9c4a831a-17d8-431f-929f-5d153b6b4091</v>
       </c>
       <c r="B256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D256" t="str">
         <v>Name 255</v>
       </c>
-      <c r="E256" t="str">
-        <v>f951d02c-e815-4620-8003-01bd8cb28c53</v>
-      </c>
     </row>
     <row r="257">
-      <c r="A257">
-        <v>256</v>
+      <c r="A257" t="str">
+        <v>f938320b-f4a2-4992-97ab-551a6c3fdc89</v>
       </c>
       <c r="B257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D257" t="str">
         <v>Name 256</v>
       </c>
-      <c r="E257" t="str">
-        <v>c8e0d83e-a53d-40e2-bc9e-b9209436a023</v>
-      </c>
     </row>
     <row r="258">
-      <c r="A258">
-        <v>257</v>
+      <c r="A258" t="str">
+        <v>f94b5dd7-03d6-4103-b41f-f335ff51f334</v>
       </c>
       <c r="B258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D258" t="str">
         <v>Name 257</v>
       </c>
-      <c r="E258" t="str">
-        <v>e48f0c87-0e04-48a8-ac80-b1d368a9625e</v>
-      </c>
     </row>
     <row r="259">
-      <c r="A259">
-        <v>258</v>
+      <c r="A259" t="str">
+        <v>0a08972e-be07-4f70-98a0-f684ca52c515</v>
       </c>
       <c r="B259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D259" t="str">
         <v>Name 258</v>
       </c>
-      <c r="E259" t="str">
-        <v>746cb102-34ac-47d8-9e65-c15f5ec99b56</v>
-      </c>
     </row>
     <row r="260">
-      <c r="A260">
-        <v>259</v>
+      <c r="A260" t="str">
+        <v>0447a405-c980-47e5-8081-d2e7bca5b66b</v>
       </c>
       <c r="B260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D260" t="str">
         <v>Name 259</v>
       </c>
-      <c r="E260" t="str">
-        <v>74a13173-2841-4be1-8ecc-9c1383b8c26f</v>
-      </c>
     </row>
     <row r="261">
-      <c r="A261">
-        <v>260</v>
+      <c r="A261" t="str">
+        <v>647768f4-1152-44a1-bf5d-ce9cd022358d</v>
       </c>
       <c r="B261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D261" t="str">
         <v>Name 260</v>
       </c>
-      <c r="E261" t="str">
-        <v>c0535bca-2135-4ae2-8f2c-0b17387432dd</v>
-      </c>
     </row>
     <row r="262">
-      <c r="A262">
-        <v>261</v>
+      <c r="A262" t="str">
+        <v>240ca228-383a-4aaa-ab07-99a66ddf6725</v>
       </c>
       <c r="B262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D262" t="str">
         <v>Name 261</v>
       </c>
-      <c r="E262" t="str">
-        <v>09c324fe-1c2a-42ad-87d3-060fde7b9693</v>
-      </c>
     </row>
     <row r="263">
-      <c r="A263">
-        <v>262</v>
+      <c r="A263" t="str">
+        <v>5779d1be-0126-464c-9839-b000e36caf28</v>
       </c>
       <c r="B263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D263" t="str">
         <v>Name 262</v>
       </c>
-      <c r="E263" t="str">
-        <v>7804a476-cd92-4435-b1a7-868417a2e41d</v>
-      </c>
     </row>
     <row r="264">
-      <c r="A264">
-        <v>263</v>
+      <c r="A264" t="str">
+        <v>15cbc01f-8479-4b1b-8cbc-5ec4b4e2920f</v>
       </c>
       <c r="B264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D264" t="str">
         <v>Name 263</v>
       </c>
-      <c r="E264" t="str">
-        <v>784c2c34-5e21-496c-b948-7460ac77798c</v>
-      </c>
     </row>
     <row r="265">
-      <c r="A265">
-        <v>264</v>
+      <c r="A265" t="str">
+        <v>aebe278f-0ea4-42fb-8e3c-ea07235d4797</v>
       </c>
       <c r="B265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D265" t="str">
         <v>Name 264</v>
       </c>
-      <c r="E265" t="str">
-        <v>e9b0bb69-b20f-4ba0-933f-8d797831f70d</v>
-      </c>
     </row>
     <row r="266">
-      <c r="A266">
-        <v>265</v>
+      <c r="A266" t="str">
+        <v>020542ea-313c-493e-89d9-79313314986b</v>
       </c>
       <c r="B266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D266" t="str">
         <v>Name 265</v>
       </c>
-      <c r="E266" t="str">
-        <v>a6797a4e-6ed3-4fd6-9dff-eb8348c02e68</v>
-      </c>
     </row>
     <row r="267">
-      <c r="A267">
-        <v>266</v>
+      <c r="A267" t="str">
+        <v>3eea08fc-7e8c-4aff-ab16-eaedd5643acf</v>
       </c>
       <c r="B267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D267" t="str">
         <v>Name 266</v>
       </c>
-      <c r="E267" t="str">
-        <v>48ed6318-c8a0-4d50-a778-dd41437b39b7</v>
-      </c>
     </row>
     <row r="268">
-      <c r="A268">
-        <v>267</v>
+      <c r="A268" t="str">
+        <v>9d336a2b-ff50-46aa-b0e5-ecc267d1b6f4</v>
       </c>
       <c r="B268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D268" t="str">
         <v>Name 267</v>
       </c>
-      <c r="E268" t="str">
-        <v>4ed23ebd-e002-4b2e-b7a9-11d48db89725</v>
-      </c>
     </row>
     <row r="269">
-      <c r="A269">
-        <v>268</v>
+      <c r="A269" t="str">
+        <v>795c4577-8c2c-401c-8414-920c5f90ba9b</v>
       </c>
       <c r="B269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D269" t="str">
         <v>Name 268</v>
       </c>
-      <c r="E269" t="str">
-        <v>8bd42c11-bb09-41e6-99f9-bfe6d4f868e7</v>
-      </c>
     </row>
     <row r="270">
-      <c r="A270">
-        <v>269</v>
+      <c r="A270" t="str">
+        <v>67168283-c005-4147-b00f-d6bb3d18eea0</v>
       </c>
       <c r="B270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D270" t="str">
         <v>Name 269</v>
       </c>
-      <c r="E270" t="str">
-        <v>77338538-bede-4d8e-bc5b-90ede9027106</v>
-      </c>
     </row>
     <row r="271">
-      <c r="A271">
-        <v>270</v>
+      <c r="A271" t="str">
+        <v>b0bb850d-a68a-4431-9258-555aba821988</v>
       </c>
       <c r="B271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D271" t="str">
         <v>Name 270</v>
       </c>
-      <c r="E271" t="str">
-        <v>7f9dcd99-90e9-43c9-a934-9a09bdd8ab14</v>
-      </c>
     </row>
     <row r="272">
-      <c r="A272">
-        <v>271</v>
+      <c r="A272" t="str">
+        <v>cfbee7bb-ba19-4af4-8c27-bb6526631ef1</v>
       </c>
       <c r="B272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D272" t="str">
         <v>Name 271</v>
       </c>
-      <c r="E272" t="str">
-        <v>5c405095-fd7f-46ce-b7ed-f80ad5c0f078</v>
-      </c>
     </row>
     <row r="273">
-      <c r="A273">
-        <v>272</v>
+      <c r="A273" t="str">
+        <v>df89dafa-4b5d-40f1-8a1b-fbc5988311ff</v>
       </c>
       <c r="B273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D273" t="str">
         <v>Name 272</v>
       </c>
-      <c r="E273" t="str">
-        <v>4a19a258-420d-47fa-b4db-4c0e450a847e</v>
-      </c>
     </row>
     <row r="274">
-      <c r="A274">
-        <v>273</v>
+      <c r="A274" t="str">
+        <v>5f7e6bb6-d6a1-4004-8f22-255450152739</v>
       </c>
       <c r="B274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D274" t="str">
         <v>Name 273</v>
       </c>
-      <c r="E274" t="str">
-        <v>3adf0066-8dc3-4367-8a95-2322187874ed</v>
-      </c>
     </row>
     <row r="275">
-      <c r="A275">
-        <v>274</v>
+      <c r="A275" t="str">
+        <v>0497d521-70e3-47c0-ae0d-aaa59b685b5d</v>
       </c>
       <c r="B275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D275" t="str">
         <v>Name 274</v>
       </c>
-      <c r="E275" t="str">
-        <v>6d8938cd-edae-4a35-8154-d8e0b416ff2e</v>
-      </c>
     </row>
     <row r="276">
-      <c r="A276">
-        <v>275</v>
+      <c r="A276" t="str">
+        <v>e8b87b47-1085-48aa-8fe0-d552a041a28d</v>
       </c>
       <c r="B276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D276" t="str">
         <v>Name 275</v>
       </c>
-      <c r="E276" t="str">
-        <v>0326afe8-1d30-4083-a060-210118d23f1e</v>
-      </c>
     </row>
     <row r="277">
-      <c r="A277">
-        <v>276</v>
+      <c r="A277" t="str">
+        <v>8b1892fb-6f65-4f74-a60c-f03226c7a4b1</v>
       </c>
       <c r="B277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D277" t="str">
         <v>Name 276</v>
       </c>
-      <c r="E277" t="str">
-        <v>55ef0aeb-b111-46ed-bff9-1db08231b1a8</v>
-      </c>
     </row>
     <row r="278">
-      <c r="A278">
-        <v>277</v>
+      <c r="A278" t="str">
+        <v>da798ea5-eb8f-4415-963b-f82d43952dc9</v>
       </c>
       <c r="B278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D278" t="str">
         <v>Name 277</v>
       </c>
-      <c r="E278" t="str">
-        <v>28dea6fc-f728-47b9-b1e2-88c0904c9fca</v>
-      </c>
     </row>
     <row r="279">
-      <c r="A279">
-        <v>278</v>
+      <c r="A279" t="str">
+        <v>f3d6f5d5-e49b-489b-ae7a-39d02415abfa</v>
       </c>
       <c r="B279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D279" t="str">
         <v>Name 278</v>
       </c>
-      <c r="E279" t="str">
-        <v>6015db27-4ab3-4e18-979a-c94decda6fc2</v>
-      </c>
     </row>
     <row r="280">
-      <c r="A280">
-        <v>279</v>
+      <c r="A280" t="str">
+        <v>2ba23ba8-9bc2-45ae-b4d1-49be920865e6</v>
       </c>
       <c r="B280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D280" t="str">
         <v>Name 279</v>
       </c>
-      <c r="E280" t="str">
-        <v>39eb73a2-23d5-4a8d-b904-d3510abf0a2b</v>
-      </c>
     </row>
     <row r="281">
-      <c r="A281">
-        <v>280</v>
+      <c r="A281" t="str">
+        <v>8dd98c72-7c5b-42f3-b7c0-f4e24e0d61ea</v>
       </c>
       <c r="B281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D281" t="str">
         <v>Name 280</v>
       </c>
-      <c r="E281" t="str">
-        <v>0c75101a-fb16-4aaa-8083-25260d2f1c32</v>
-      </c>
     </row>
     <row r="282">
-      <c r="A282">
-        <v>281</v>
+      <c r="A282" t="str">
+        <v>262ddf99-a01b-47b4-b67b-a9c0afd5e7ec</v>
       </c>
       <c r="B282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D282" t="str">
         <v>Name 281</v>
       </c>
-      <c r="E282" t="str">
-        <v>f8dac262-e828-48f4-8170-c22d30c00af5</v>
-      </c>
     </row>
     <row r="283">
-      <c r="A283">
-        <v>282</v>
+      <c r="A283" t="str">
+        <v>05f66027-041a-4bcb-99e3-35ab06fb9d99</v>
       </c>
       <c r="B283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D283" t="str">
         <v>Name 282</v>
       </c>
-      <c r="E283" t="str">
-        <v>d4ee3b7c-6f16-4e16-8047-19731fc741fe</v>
-      </c>
     </row>
     <row r="284">
-      <c r="A284">
-        <v>283</v>
+      <c r="A284" t="str">
+        <v>112c2579-958e-4f9d-86d8-a1e000598acd</v>
       </c>
       <c r="B284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D284" t="str">
         <v>Name 283</v>
       </c>
-      <c r="E284" t="str">
-        <v>b92241c0-98a9-4f5d-b82e-f050ad82e020</v>
-      </c>
     </row>
     <row r="285">
-      <c r="A285">
-        <v>284</v>
+      <c r="A285" t="str">
+        <v>5e997079-3fff-41f8-8217-01760e84f544</v>
       </c>
       <c r="B285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D285" t="str">
         <v>Name 284</v>
       </c>
-      <c r="E285" t="str">
-        <v>cb4659ea-ba3a-4541-bd69-cdf9bc2c2f9e</v>
-      </c>
     </row>
     <row r="286">
-      <c r="A286">
-        <v>285</v>
+      <c r="A286" t="str">
+        <v>db6476eb-890a-40d0-a52d-52794a4173ef</v>
       </c>
       <c r="B286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D286" t="str">
         <v>Name 285</v>
       </c>
-      <c r="E286" t="str">
-        <v>785d0edb-6b6b-4da5-899d-02442c6d86be</v>
-      </c>
     </row>
     <row r="287">
-      <c r="A287">
-        <v>286</v>
+      <c r="A287" t="str">
+        <v>595c3291-0cbe-4730-a11b-a11039e9656e</v>
       </c>
       <c r="B287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D287" t="str">
         <v>Name 286</v>
       </c>
-      <c r="E287" t="str">
-        <v>081bcf3a-e34f-4b64-ad64-73278c8bebd6</v>
-      </c>
     </row>
     <row r="288">
-      <c r="A288">
-        <v>287</v>
+      <c r="A288" t="str">
+        <v>4984468e-21b1-4f0c-a51c-52f75f3d0eee</v>
       </c>
       <c r="B288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D288" t="str">
         <v>Name 287</v>
       </c>
-      <c r="E288" t="str">
-        <v>352bd9d3-d7d0-4bbf-8b3c-5e2f53b7308e</v>
-      </c>
     </row>
     <row r="289">
-      <c r="A289">
-        <v>288</v>
+      <c r="A289" t="str">
+        <v>5628eb86-c57b-419a-9aa6-9a42a5bb3395</v>
       </c>
       <c r="B289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D289" t="str">
         <v>Name 288</v>
       </c>
-      <c r="E289" t="str">
-        <v>09683a54-33bd-4e6e-9624-9c66fae27bd9</v>
-      </c>
     </row>
     <row r="290">
-      <c r="A290">
-        <v>289</v>
+      <c r="A290" t="str">
+        <v>43a47f1e-2fbb-468a-bfbd-04b758915ad8</v>
       </c>
       <c r="B290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D290" t="str">
         <v>Name 289</v>
       </c>
-      <c r="E290" t="str">
-        <v>e174b704-6db3-42f6-8ac4-686bd0a86895</v>
-      </c>
     </row>
     <row r="291">
-      <c r="A291">
-        <v>290</v>
+      <c r="A291" t="str">
+        <v>f480ab8a-a18c-466c-8844-bc2c50ebf588</v>
       </c>
       <c r="B291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D291" t="str">
         <v>Name 290</v>
       </c>
-      <c r="E291" t="str">
-        <v>59aed55c-2d8c-4b03-b063-48648954f087</v>
-      </c>
     </row>
     <row r="292">
-      <c r="A292">
-        <v>291</v>
+      <c r="A292" t="str">
+        <v>957dcaa6-b45f-4b65-98b8-94296b2281a1</v>
       </c>
       <c r="B292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D292" t="str">
         <v>Name 291</v>
       </c>
-      <c r="E292" t="str">
-        <v>78b3c7be-3fb1-4489-8ccd-3db3af66d739</v>
-      </c>
     </row>
     <row r="293">
-      <c r="A293">
-        <v>292</v>
+      <c r="A293" t="str">
+        <v>2e7fadb2-e9a2-482d-a040-b14e7272e9bb</v>
       </c>
       <c r="B293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D293" t="str">
         <v>Name 292</v>
       </c>
-      <c r="E293" t="str">
-        <v>a5690fa8-d630-46de-9b22-08b0d61f95c6</v>
-      </c>
     </row>
     <row r="294">
-      <c r="A294">
-        <v>293</v>
+      <c r="A294" t="str">
+        <v>c642ddc9-e497-4970-9b42-7820ad0bc19e</v>
       </c>
       <c r="B294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D294" t="str">
         <v>Name 293</v>
       </c>
-      <c r="E294" t="str">
-        <v>13e3de88-ba43-40f0-9081-d4c56837c0d6</v>
-      </c>
     </row>
     <row r="295">
-      <c r="A295">
-        <v>294</v>
+      <c r="A295" t="str">
+        <v>8f3cb15b-c111-47ea-a3a4-b080e952b9ca</v>
       </c>
       <c r="B295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D295" t="str">
         <v>Name 294</v>
       </c>
-      <c r="E295" t="str">
-        <v>94e08893-eccf-485a-9289-1077b1f72e95</v>
-      </c>
     </row>
     <row r="296">
-      <c r="A296">
-        <v>295</v>
+      <c r="A296" t="str">
+        <v>03a85b61-11db-4dee-979a-f446a1c27bb6</v>
       </c>
       <c r="B296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D296" t="str">
         <v>Name 295</v>
       </c>
-      <c r="E296" t="str">
-        <v>8043929d-d6e8-42c7-bd94-6c3bc9767d44</v>
-      </c>
     </row>
     <row r="297">
-      <c r="A297">
-        <v>296</v>
+      <c r="A297" t="str">
+        <v>7658d25d-bbec-490f-b27c-4653c27e273e</v>
       </c>
       <c r="B297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D297" t="str">
         <v>Name 296</v>
       </c>
-      <c r="E297" t="str">
-        <v>9cddbe15-4fab-4d2f-9c60-42caaa5d4e67</v>
-      </c>
     </row>
     <row r="298">
-      <c r="A298">
-        <v>297</v>
+      <c r="A298" t="str">
+        <v>6c9d83ac-77c1-4478-911a-33a056dcb759</v>
       </c>
       <c r="B298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D298" t="str">
         <v>Name 297</v>
       </c>
-      <c r="E298" t="str">
-        <v>6f506918-0295-4e1e-9520-be5e9db81dad</v>
-      </c>
     </row>
     <row r="299">
-      <c r="A299">
-        <v>298</v>
+      <c r="A299" t="str">
+        <v>82b590a3-437e-49a3-9534-cc788e49d5e1</v>
       </c>
       <c r="B299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D299" t="str">
         <v>Name 298</v>
       </c>
-      <c r="E299" t="str">
-        <v>cb4dbfdd-10ae-406b-8ca4-d68420d87cdf</v>
-      </c>
     </row>
     <row r="300">
-      <c r="A300">
-        <v>299</v>
+      <c r="A300" t="str">
+        <v>31d3b159-3e8a-4a31-bd6b-80c6698b800e</v>
       </c>
       <c r="B300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D300" t="str">
         <v>Name 299</v>
       </c>
-      <c r="E300" t="str">
-        <v>78d19429-74b3-4050-bc6c-b199e3179a0c</v>
-      </c>
     </row>
     <row r="301">
-      <c r="A301">
-        <v>300</v>
+      <c r="A301" t="str">
+        <v>75f2bb37-4f49-4bd2-935b-18f466d6f0e2</v>
       </c>
       <c r="B301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D301" t="str">
         <v>Name 300</v>
       </c>
-      <c r="E301" t="str">
-        <v>8647096d-c944-4a76-be57-0cf1a2e3af4c</v>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>NaN</v>
+      </c>
+      <c r="D302" t="str">
+        <v>John</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E301"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D302"/>
   </ignoredErrors>
 </worksheet>
 </file>